--- a/dataset/P_24_N_600.xlsx
+++ b/dataset/P_24_N_600.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luker\source\repos\EC_P-Median\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193A0598-3836-480B-A8F4-3B3785EB7716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B0E298-DF29-45CF-94B7-2287D6F2B5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,11 +44,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,13 +81,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,7 +391,7 @@
   <dimension ref="A1:C601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -408,4813 +400,4812 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>393.86606952828538</v>
+        <v>224.4295546583559</v>
       </c>
       <c r="B2">
-        <v>606.28508831577835</v>
+        <v>146.6218007559448</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>383.95392743494898</v>
+        <v>464.90224388984387</v>
       </c>
       <c r="B3">
-        <v>602.77952988620461</v>
+        <v>311.19578919197681</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>593.64524208118189</v>
+        <v>62.880200801484897</v>
       </c>
       <c r="B4">
-        <v>562.47944094285242</v>
+        <v>181.145927798576</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>130.8427663451439</v>
+        <v>519.37491436686014</v>
       </c>
       <c r="B5">
-        <v>567.40446125318442</v>
+        <v>326.48322888492601</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>394.07190602596268</v>
+        <v>449.27135487787513</v>
       </c>
       <c r="B6">
-        <v>262.93750726317961</v>
+        <v>450.78152631089472</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>351.19659178296428</v>
+        <v>425.45980182752231</v>
       </c>
       <c r="B7">
-        <v>228.91027259325179</v>
+        <v>476.15377947651962</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>162.19639561108301</v>
+        <v>140.41102165889109</v>
       </c>
       <c r="B8">
-        <v>134.31060086257969</v>
+        <v>67.469894558752685</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>125.8389921499937</v>
+        <v>345.58429172603468</v>
       </c>
       <c r="B9">
-        <v>432.07309684052649</v>
+        <v>258.63982010303818</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>228.3625947526964</v>
+        <v>229.52847017386691</v>
       </c>
       <c r="B10">
-        <v>112.6198059690204</v>
+        <v>36.08338565695896</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>370.3664887650645</v>
+        <v>431.49497642464718</v>
       </c>
       <c r="B11">
-        <v>170.49603596913141</v>
+        <v>282.27117697946329</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>406.91454190798191</v>
+        <v>471.56667731285893</v>
       </c>
       <c r="B12">
-        <v>572.09821143224815</v>
+        <v>417.22066518189069</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>502.84626849066819</v>
+        <v>141.40207481462139</v>
       </c>
       <c r="B13">
-        <v>433.13819779733092</v>
+        <v>262.28083120353477</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>350.19051713566961</v>
+        <v>342.70364880657092</v>
       </c>
       <c r="B14">
-        <v>178.19419908960171</v>
+        <v>221.60359828900619</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>81.414413979358017</v>
+        <v>212.88442080993889</v>
       </c>
       <c r="B15">
-        <v>462.74597892222658</v>
+        <v>184.66715163838509</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>-0.52553727953092633</v>
+        <v>73.853427954542937</v>
       </c>
       <c r="B16">
-        <v>188.50898892558359</v>
+        <v>68.046527520187709</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>261.11965503207762</v>
+        <v>231.7139170969985</v>
       </c>
       <c r="B17">
-        <v>328.49496854282017</v>
+        <v>430.29535657833873</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>476.31646532782082</v>
+        <v>245.2970554213874</v>
       </c>
       <c r="B18">
-        <v>-5.9831906250010434</v>
+        <v>240.79704260628071</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>201.5756803489848</v>
+        <v>426.56328858110328</v>
       </c>
       <c r="B19">
-        <v>133.89352818947469</v>
+        <v>450.08173712430039</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>480.28954282399332</v>
+        <v>226.81797775503571</v>
       </c>
       <c r="B20">
-        <v>395.02046641634269</v>
+        <v>612.54486079462367</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>369.4781810731314</v>
+        <v>471.31996559051771</v>
       </c>
       <c r="B21">
-        <v>336.85213535292388</v>
+        <v>412.0405603691537</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>392.83935557191268</v>
+        <v>468.82645736097209</v>
       </c>
       <c r="B22">
-        <v>330.68045361440949</v>
+        <v>400.73168548607862</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>203.34191465108921</v>
+        <v>459.40375823909108</v>
       </c>
       <c r="B23">
-        <v>47.368304258918883</v>
+        <v>264.65762448153879</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>514.6826028704445</v>
+        <v>452.08866218131863</v>
       </c>
       <c r="B24">
-        <v>534.98897972516193</v>
+        <v>-24.664559051150221</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>385.84860197748031</v>
+        <v>303.95496551627588</v>
       </c>
       <c r="B25">
-        <v>375.2478704029615</v>
+        <v>412.62629674231277</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>367.08058537917339</v>
+        <v>226.0537135401454</v>
       </c>
       <c r="B26">
-        <v>115.43626185987389</v>
+        <v>129.65246179960931</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>357.29293541284432</v>
+        <v>233.9463489646576</v>
       </c>
       <c r="B27">
-        <v>286.25384064134681</v>
+        <v>367.549534557041</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>194.61272333760061</v>
+        <v>116.1483698683783</v>
       </c>
       <c r="B28">
-        <v>169.90532917099989</v>
+        <v>261.95207371501112</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>385.72385182976001</v>
+        <v>169.79020046688041</v>
       </c>
       <c r="B29">
-        <v>366.49410890603718</v>
+        <v>51.960629794581372</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>352.57620865124687</v>
+        <v>313.06689022262759</v>
       </c>
       <c r="B30">
-        <v>171.82417498147939</v>
+        <v>431.01153419056561</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>244.54645465969821</v>
+        <v>276.48110954424419</v>
       </c>
       <c r="B31">
-        <v>112.9611228854652</v>
+        <v>193.987006695735</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>381.49061886223939</v>
+        <v>249.21067199653939</v>
       </c>
       <c r="B32">
-        <v>331.83215914442292</v>
+        <v>214.86907404264321</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>87.67718092134723</v>
+        <v>76.253202745664524</v>
       </c>
       <c r="B33">
-        <v>459.71373854480521</v>
+        <v>172.7797117256047</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>276.6137365142676</v>
+        <v>212.0096525988848</v>
       </c>
       <c r="B34">
-        <v>529.38326168927165</v>
+        <v>425.18178383738928</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>440.5848982702733</v>
+        <v>536.248817481218</v>
       </c>
       <c r="B35">
-        <v>71.161979701379551</v>
+        <v>399.6890384986757</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>328.25622473407219</v>
+        <v>-5.0537315126825888</v>
       </c>
       <c r="B36">
-        <v>521.66143626151847</v>
+        <v>34.802624087034509</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>460.30354434442609</v>
+        <v>563.59418537882379</v>
       </c>
       <c r="B37">
-        <v>23.952583964176689</v>
+        <v>149.90487472528699</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>393.32293354735612</v>
+        <v>117.83370465451389</v>
       </c>
       <c r="B38">
-        <v>126.587851243903</v>
+        <v>-25.712927344831979</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>68.792528432775143</v>
+        <v>208.7206425685884</v>
       </c>
       <c r="B39">
-        <v>438.99403454088548</v>
+        <v>580.30508397982169</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>172.70438951820429</v>
+        <v>412.25517431717122</v>
       </c>
       <c r="B40">
-        <v>51.134503905806788</v>
+        <v>281.81498622036128</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>581.15900018854393</v>
+        <v>138.18976934007509</v>
       </c>
       <c r="B41">
-        <v>411.48594282030939</v>
+        <v>48.282828226570743</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>101.6163404831569</v>
+        <v>229.22985857758979</v>
       </c>
       <c r="B42">
-        <v>466.37241562260692</v>
+        <v>595.69127523787836</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>374.58904364695297</v>
+        <v>288.11740512755819</v>
       </c>
       <c r="B43">
-        <v>217.4685333791484</v>
+        <v>207.73361869569169</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>184.250301334526</v>
+        <v>545.52633305425684</v>
       </c>
       <c r="B44">
-        <v>54.314163816713503</v>
+        <v>390.58826595807977</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>202.54665100056411</v>
+        <v>180.5787304561714</v>
       </c>
       <c r="B45">
-        <v>21.598304140425579</v>
+        <v>599.81376862794764</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>405.12481269902861</v>
+        <v>581.49717023330106</v>
       </c>
       <c r="B46">
-        <v>245.86109079728769</v>
+        <v>204.55994095936069</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>219.09550789052881</v>
+        <v>388.86139438712149</v>
       </c>
       <c r="B47">
-        <v>111.8476156267797</v>
+        <v>323.28583683428138</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>594.7887933761674</v>
+        <v>232.95919089457291</v>
       </c>
       <c r="B48">
-        <v>213.90870870074511</v>
+        <v>209.69197343592609</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>389.6545565066084</v>
+        <v>474.67711472748289</v>
       </c>
       <c r="B49">
-        <v>171.06270343432749</v>
+        <v>306.45008754796538</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>240.31846458815161</v>
+        <v>79.058897951654956</v>
       </c>
       <c r="B50">
-        <v>587.40315428030306</v>
+        <v>176.4741197277248</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>185.77581069765921</v>
+        <v>269.19018547570209</v>
       </c>
       <c r="B51">
-        <v>546.36868082621629</v>
+        <v>189.86610933033049</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>576.76442988506506</v>
+        <v>310.10361777478522</v>
       </c>
       <c r="B52">
-        <v>402.83139025806008</v>
+        <v>412.90765714133681</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>105.09702135244871</v>
+        <v>174.51891761753399</v>
       </c>
       <c r="B53">
-        <v>432.35953315469209</v>
+        <v>31.279028216086381</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>382.54789179344539</v>
+        <v>485.31221230143098</v>
       </c>
       <c r="B54">
-        <v>580.91492580015404</v>
+        <v>353.35300758159019</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>503.17937645744689</v>
+        <v>432.60434472112001</v>
       </c>
       <c r="B55">
-        <v>353.12409350988861</v>
+        <v>263.62522456163049</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>-15.33003343509796</v>
+        <v>195.27813997678251</v>
       </c>
       <c r="B56">
-        <v>212.86773409158801</v>
+        <v>137.51559395176571</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
-        <v>594.00746660357936</v>
+        <v>246.74969052784309</v>
       </c>
       <c r="B57">
-        <v>204.9080773858561</v>
+        <v>417.5142853255511</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
-        <v>72.301749013400951</v>
+        <v>322.77153717805493</v>
       </c>
       <c r="B58">
-        <v>467.31755903571968</v>
+        <v>204.93482498131169</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <v>376.73233317825361</v>
+        <v>451.79965338647747</v>
       </c>
       <c r="B59">
-        <v>584.33983650248672</v>
+        <v>273.11708961766141</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <v>573.08150228701231</v>
+        <v>228.10671197977101</v>
       </c>
       <c r="B60">
-        <v>218.31978605601631</v>
+        <v>584.03037342148616</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <v>161.19272270370661</v>
+        <v>298.3980324178608</v>
       </c>
       <c r="B61">
-        <v>142.76315177452199</v>
+        <v>203.36553283196051</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>268.34349150415898</v>
+        <v>202.737120218619</v>
       </c>
       <c r="B62">
-        <v>559.92938061580639</v>
+        <v>155.83756421526979</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>208.9438056028703</v>
+        <v>464.5916889561916</v>
       </c>
       <c r="B63">
-        <v>82.212546305117598</v>
+        <v>549.31150293768496</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>153.9440467922274</v>
+        <v>302.57121895247508</v>
       </c>
       <c r="B64">
-        <v>211.76670995193069</v>
+        <v>220.46971505572631</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>406.78850845664851</v>
+        <v>448.96913276959128</v>
       </c>
       <c r="B65">
-        <v>596.79164400132731</v>
+        <v>510.81085012516968</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>213.24795288044459</v>
+        <v>243.43751823377539</v>
       </c>
       <c r="B66">
-        <v>88.453450179603692</v>
+        <v>123.73740764500469</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>363.2384025614117</v>
+        <v>438.59381562393128</v>
       </c>
       <c r="B67">
-        <v>588.77966387458684</v>
+        <v>588.36016755432968</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <v>446.61036807614431</v>
+        <v>409.76607538527321</v>
       </c>
       <c r="B68">
-        <v>40.896176067783763</v>
+        <v>449.21634844085668</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
-        <v>207.92633898755449</v>
+        <v>187.87443842807369</v>
       </c>
       <c r="B69">
-        <v>156.9009293636021</v>
+        <v>12.18073065554611</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <v>517.81595780723057</v>
+        <v>442.96778701754391</v>
       </c>
       <c r="B70">
-        <v>367.89277937736779</v>
+        <v>41.434274949240759</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
-        <v>489.71747268913577</v>
+        <v>33.849836290626158</v>
       </c>
       <c r="B71">
-        <v>50.471758281348777</v>
+        <v>37.96580197345034</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <v>430.06580172388652</v>
+        <v>319.6940478652856</v>
       </c>
       <c r="B72">
-        <v>307.37886912687043</v>
+        <v>168.83345472277671</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
-        <v>254.8113170512585</v>
+        <v>51.701061008406683</v>
       </c>
       <c r="B73">
-        <v>326.78442684932588</v>
+        <v>9.3968495345761092</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <v>560.4044662885251</v>
+        <v>108.24245471387739</v>
       </c>
       <c r="B74">
-        <v>547.15828873924522</v>
+        <v>18.464621585487681</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
-        <v>163.22286215222729</v>
+        <v>183.65885286359369</v>
       </c>
       <c r="B75">
-        <v>515.72323725589581</v>
+        <v>23.602971252999129</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
-        <v>530.83637392285198</v>
+        <v>113.69826639271081</v>
       </c>
       <c r="B76">
-        <v>565.45209680757193</v>
+        <v>-4.6666555533729017</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
-        <v>122.43181067501919</v>
+        <v>218.05022900432169</v>
       </c>
       <c r="B77">
-        <v>549.53187824701911</v>
+        <v>588.95794140740668</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
-        <v>387.36345455181788</v>
+        <v>454.5868727005215</v>
       </c>
       <c r="B78">
-        <v>574.99348235220441</v>
+        <v>292.14474266169429</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
-        <v>156.9402699935454</v>
+        <v>311.13694808427169</v>
       </c>
       <c r="B79">
-        <v>136.4763870742932</v>
+        <v>205.2305695589871</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
-        <v>440.11910772412278</v>
+        <v>164.74881625475291</v>
       </c>
       <c r="B80">
-        <v>262.4076594278568</v>
+        <v>26.62233756639289</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
-        <v>343.95182943290382</v>
+        <v>302.80314774018842</v>
       </c>
       <c r="B81">
-        <v>282.72430923636671</v>
+        <v>221.37637750199451</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
-        <v>-11.3793953254975</v>
+        <v>204.51694861065741</v>
       </c>
       <c r="B82">
-        <v>157.29401606381211</v>
+        <v>166.20686568782301</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
-        <v>242.30429704009691</v>
+        <v>227.67860838165461</v>
       </c>
       <c r="B83">
-        <v>49.768028393743919</v>
+        <v>363.47984544667139</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
-        <v>431.63579413231179</v>
+        <v>160.36026467840711</v>
       </c>
       <c r="B84">
-        <v>277.1911766500005</v>
+        <v>39.921421881599457</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
-        <v>183.35433350364491</v>
+        <v>440.84585775686861</v>
       </c>
       <c r="B85">
-        <v>79.207852790137395</v>
+        <v>10.801993118341921</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
-        <v>570.290672235481</v>
+        <v>299.74590942749529</v>
       </c>
       <c r="B86">
-        <v>348.59034352571928</v>
+        <v>184.6105892812956</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
-        <v>474.44947260575208</v>
+        <v>277.6289256689422</v>
       </c>
       <c r="B87">
-        <v>376.49981963634951</v>
+        <v>174.92716438173471</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
-        <v>293.44153450437858</v>
+        <v>289.28071861796872</v>
       </c>
       <c r="B88">
-        <v>537.96912857530481</v>
+        <v>389.10915935116822</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
-        <v>457.73678003164571</v>
+        <v>463.35920867189202</v>
       </c>
       <c r="B89">
-        <v>22.001034612654351</v>
+        <v>48.353924504319323</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
-        <v>480.76031272949552</v>
+        <v>458.60497437654459</v>
       </c>
       <c r="B90">
-        <v>-1.24906940819892</v>
+        <v>407.26363057541607</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
-        <v>445.69056983164262</v>
+        <v>590.1656034665582</v>
       </c>
       <c r="B91">
-        <v>22.796106072330439</v>
+        <v>165.81601843676901</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
-        <v>462.69070666192368</v>
+        <v>233.90418455218071</v>
       </c>
       <c r="B92">
-        <v>274.14406008149581</v>
+        <v>230.07107857876039</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
-        <v>557.82980095700316</v>
+        <v>142.28995781848289</v>
       </c>
       <c r="B93">
-        <v>546.68769754136451</v>
+        <v>75.668244288587616</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
-        <v>240.50671158004599</v>
+        <v>474.37073894362948</v>
       </c>
       <c r="B94">
-        <v>118.3932195555857</v>
+        <v>403.88747493634719</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
-        <v>546.99071614004276</v>
+        <v>452.17287805665359</v>
       </c>
       <c r="B95">
-        <v>230.4292859686982</v>
+        <v>389.12054543233421</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
-        <v>568.18398318473658</v>
+        <v>256.19429849850849</v>
       </c>
       <c r="B96">
-        <v>556.86454549006692</v>
+        <v>444.80756171043652</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>450.23867557335211</v>
+        <v>211.28527442488831</v>
       </c>
       <c r="B97">
-        <v>-9.0970010333122318</v>
+        <v>581.1886179333585</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
-        <v>447.26676122529659</v>
+        <v>212.83884027980841</v>
       </c>
       <c r="B98">
-        <v>297.38366360424351</v>
+        <v>201.75706751670029</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
-        <v>570.46926681544755</v>
+        <v>286.89527413535677</v>
       </c>
       <c r="B99">
-        <v>593.57145227005014</v>
+        <v>144.0379361320899</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
-        <v>380.66417221538671</v>
+        <v>202.2390756323704</v>
       </c>
       <c r="B100">
-        <v>608.64933881526974</v>
+        <v>22.382557772848379</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
-        <v>589.4742394269756</v>
+        <v>498.52427641534399</v>
       </c>
       <c r="B101">
-        <v>373.67632004130388</v>
+        <v>630.04981667331924</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
-        <v>568.61724138851673</v>
+        <v>71.497460666243285</v>
       </c>
       <c r="B102">
-        <v>185.45415665650691</v>
+        <v>182.70370386947769</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
-        <v>473.22757419020542</v>
+        <v>179.6049468064549</v>
       </c>
       <c r="B103">
-        <v>301.59745697249701</v>
+        <v>197.05925439037031</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
-        <v>368.03674264761548</v>
+        <v>447.17443853226939</v>
       </c>
       <c r="B104">
-        <v>584.37682722445129</v>
+        <v>271.25032672151661</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
-        <v>186.61925375420299</v>
+        <v>475.18102858081681</v>
       </c>
       <c r="B105">
-        <v>60.932018558487648</v>
+        <v>64.936967915259302</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
-        <v>455.58796348321607</v>
+        <v>282.57764818775462</v>
       </c>
       <c r="B106">
-        <v>7.8444459688456192</v>
+        <v>186.46160277126279</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
-        <v>296.21851700531272</v>
+        <v>34.013425157569998</v>
       </c>
       <c r="B107">
-        <v>174.7120952290461</v>
+        <v>40.985160143788477</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
-        <v>136.37434954539239</v>
+        <v>418.51777638950728</v>
       </c>
       <c r="B108">
-        <v>569.59549825607633</v>
+        <v>427.0390524609378</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
-        <v>594.01020400106336</v>
+        <v>429.51287681501282</v>
       </c>
       <c r="B109">
-        <v>391.53007664554679</v>
+        <v>455.53576974468109</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
-        <v>590.52938353854881</v>
+        <v>408.28207188022418</v>
       </c>
       <c r="B110">
-        <v>541.27502503737674</v>
+        <v>312.31513124379057</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
-        <v>-5.2269084920462916</v>
+        <v>479.64766816677258</v>
       </c>
       <c r="B111">
-        <v>198.82296319717861</v>
+        <v>300.30120393320749</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
-        <v>500.83661231744679</v>
+        <v>116.61578094145401</v>
       </c>
       <c r="B112">
-        <v>350.42835342470522</v>
+        <v>153.89754021507889</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
-        <v>112.3377863930656</v>
+        <v>550.62082586637769</v>
       </c>
       <c r="B113">
-        <v>131.61571058806001</v>
+        <v>330.71627677089941</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
-        <v>566.00820078308539</v>
+        <v>523.06234087935957</v>
       </c>
       <c r="B114">
-        <v>567.83082956373778</v>
+        <v>299.07060386793819</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
-        <v>525.28942739343859</v>
+        <v>294.02246944657298</v>
       </c>
       <c r="B115">
-        <v>-8.2197927957068266</v>
+        <v>176.121808611745</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
-        <v>208.9992451869104</v>
+        <v>449.31004802877192</v>
       </c>
       <c r="B116">
-        <v>132.74899975296651</v>
+        <v>551.70847676237247</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
-        <v>238.30752713448399</v>
+        <v>479.80280974650532</v>
       </c>
       <c r="B117">
-        <v>281.79206153587728</v>
+        <v>415.57914782823349</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
-        <v>99.550370539316944</v>
+        <v>192.05957389861669</v>
       </c>
       <c r="B118">
-        <v>509.32266571424941</v>
+        <v>133.81636101595899</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
-        <v>179.6407678123955</v>
+        <v>586.68917801699763</v>
       </c>
       <c r="B119">
-        <v>125.7045236097111</v>
+        <v>154.81417194607869</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
-        <v>498.1718879420701</v>
+        <v>217.039374835335</v>
       </c>
       <c r="B120">
-        <v>297.60855930459712</v>
+        <v>134.7508226338787</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
-        <v>463.17232163405902</v>
+        <v>500.91589077807492</v>
       </c>
       <c r="B121">
-        <v>352.10010661882143</v>
+        <v>410.97660049702853</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
-        <v>65.801224945700085</v>
+        <v>588.45043987024428</v>
       </c>
       <c r="B122">
-        <v>479.20643607274201</v>
+        <v>176.67596647222811</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
-        <v>560.88470003196392</v>
+        <v>144.92774320883939</v>
       </c>
       <c r="B123">
-        <v>533.70805568468666</v>
+        <v>259.59792925678022</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
-        <v>398.22470246137232</v>
+        <v>475.22441394963067</v>
       </c>
       <c r="B124">
-        <v>386.28815942533657</v>
+        <v>57.840949203339697</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
-        <v>217.3618122646356</v>
+        <v>215.26518258752171</v>
       </c>
       <c r="B125">
-        <v>186.07840153070629</v>
+        <v>413.37432407050858</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
-        <v>533.62397871019436</v>
+        <v>288.32287514600768</v>
       </c>
       <c r="B126">
-        <v>607.3910981176839</v>
+        <v>174.95714288532349</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
-        <v>430.92460582351731</v>
+        <v>180.2987694970461</v>
       </c>
       <c r="B127">
-        <v>161.5711460763487</v>
+        <v>173.7623401190292</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
-        <v>354.64877418938971</v>
+        <v>411.62549512149218</v>
       </c>
       <c r="B128">
-        <v>169.76079697505779</v>
+        <v>456.06743396995267</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
-        <v>552.1030860136874</v>
+        <v>14.20994379200369</v>
       </c>
       <c r="B129">
-        <v>244.33017256538901</v>
+        <v>-14.33909592315279</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
-        <v>518.90661617771696</v>
+        <v>247.9279017298789</v>
       </c>
       <c r="B130">
-        <v>374.46980579165648</v>
+        <v>535.22994193985198</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
-        <v>487.77280048197861</v>
+        <v>514.49322361077839</v>
       </c>
       <c r="B131">
-        <v>387.33305560006272</v>
+        <v>346.95593840928871</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
-        <v>555.00123119370744</v>
+        <v>75.179666633824212</v>
       </c>
       <c r="B132">
-        <v>201.4157720481092</v>
+        <v>187.58038859624969</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
-        <v>125.5805509307107</v>
+        <v>332.49657241551762</v>
       </c>
       <c r="B133">
-        <v>430.47809425674438</v>
+        <v>219.46671569348629</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
-        <v>595.24517927857664</v>
+        <v>243.41142054379449</v>
       </c>
       <c r="B134">
-        <v>427.3666549209014</v>
+        <v>352.55981382254731</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
-        <v>205.31637036256549</v>
+        <v>285.12160839141598</v>
       </c>
       <c r="B135">
-        <v>80.234236987820793</v>
+        <v>147.1093721931646</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
-        <v>600.00057698613239</v>
+        <v>232.20764207441869</v>
       </c>
       <c r="B136">
-        <v>391.56667994524702</v>
+        <v>439.069670631007</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
-        <v>568.12970526707124</v>
+        <v>325.23370008550108</v>
       </c>
       <c r="B137">
-        <v>555.76918666894403</v>
+        <v>385.7199671177919</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
-        <v>539.58008183519462</v>
+        <v>566.38158288535135</v>
       </c>
       <c r="B138">
-        <v>450.5948244054776</v>
+        <v>177.70613125323351</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
-        <v>137.91453493848661</v>
+        <v>100.7911081352318</v>
       </c>
       <c r="B139">
-        <v>142.24842181651289</v>
+        <v>278.89152070496573</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
-        <v>406.66545967742093</v>
+        <v>451.11031081738679</v>
       </c>
       <c r="B140">
-        <v>625.30915353846592</v>
+        <v>557.17973375053657</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
-        <v>400.85226793361198</v>
+        <v>280.39677225890949</v>
       </c>
       <c r="B141">
-        <v>591.44682827393297</v>
+        <v>179.81163829104429</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
-        <v>130.258922862932</v>
+        <v>180.9264985790679</v>
       </c>
       <c r="B142">
-        <v>468.30907826682562</v>
+        <v>245.60242500229</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
-        <v>525.74918015772562</v>
+        <v>323.8005923598443</v>
       </c>
       <c r="B143">
-        <v>529.43420437108955</v>
+        <v>208.10891098070269</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
-        <v>447.73180427848342</v>
+        <v>263.9818363740809</v>
       </c>
       <c r="B144">
-        <v>16.992767427427541</v>
+        <v>200.0784511158077</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
-        <v>64.439741924992575</v>
+        <v>103.6128995224024</v>
       </c>
       <c r="B145">
-        <v>163.00572995076189</v>
+        <v>18.99042335127292</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
-        <v>193.1537818698624</v>
+        <v>472.18153633145067</v>
       </c>
       <c r="B146">
-        <v>147.24735632512801</v>
+        <v>41.099665974538787</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
-        <v>591.00920127293602</v>
+        <v>556.9055296136969</v>
       </c>
       <c r="B147">
-        <v>551.95176405108202</v>
+        <v>328.20678613608408</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
-        <v>406.99628658912212</v>
+        <v>470.59173926232279</v>
       </c>
       <c r="B148">
-        <v>273.22067680729958</v>
+        <v>48.805773688884948</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
-        <v>193.34321964151849</v>
+        <v>249.33651861800331</v>
       </c>
       <c r="B149">
-        <v>175.9891491337481</v>
+        <v>559.76318310204113</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
-        <v>578.84249776537547</v>
+        <v>466.12749219093581</v>
       </c>
       <c r="B150">
-        <v>420.75177109247949</v>
+        <v>396.98520597656551</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
-        <v>23.791930966285559</v>
+        <v>206.69165381969071</v>
       </c>
       <c r="B151">
-        <v>185.4452305415673</v>
+        <v>131.57884813303829</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
-        <v>281.99895176705189</v>
+        <v>570.85040101325046</v>
       </c>
       <c r="B152">
-        <v>345.08854203891019</v>
+        <v>212.36863910905089</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
-        <v>193.1101344629927</v>
+        <v>175.7920799057253</v>
       </c>
       <c r="B153">
-        <v>99.271061717940455</v>
+        <v>61.158141410464033</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
-        <v>4.614709321838415</v>
+        <v>423.00305253033309</v>
       </c>
       <c r="B154">
-        <v>223.73070207289589</v>
+        <v>431.16469142745979</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
-        <v>401.58825017601828</v>
+        <v>49.378645843970787</v>
       </c>
       <c r="B155">
-        <v>145.5431153593284</v>
+        <v>51.306466005997173</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
-        <v>423.61029825406331</v>
+        <v>275.28883149912849</v>
       </c>
       <c r="B156">
-        <v>249.241207252202</v>
+        <v>370.67503733074591</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
-        <v>99.444619032122446</v>
+        <v>162.50919663026079</v>
       </c>
       <c r="B157">
-        <v>454.37795790534841</v>
+        <v>15.463856032171281</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
-        <v>377.44647849418942</v>
+        <v>239.57504442958549</v>
       </c>
       <c r="B158">
-        <v>219.59032149538811</v>
+        <v>127.03989983989</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
-        <v>149.6194665267337</v>
+        <v>135.880856081818</v>
       </c>
       <c r="B159">
-        <v>134.90917535313631</v>
+        <v>47.559533149015373</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
-        <v>575.01596179198157</v>
+        <v>449.97962574634909</v>
       </c>
       <c r="B160">
-        <v>568.4258070241699</v>
+        <v>73.214481082773119</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
-        <v>364.71048442087732</v>
+        <v>332.35062599867121</v>
       </c>
       <c r="B161">
-        <v>597.18369018698354</v>
+        <v>439.37709766547852</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
-        <v>392.93802401331112</v>
+        <v>238.1910703974861</v>
       </c>
       <c r="B162">
-        <v>295.32772161692242</v>
+        <v>108.98305741928129</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
-        <v>565.26075491985591</v>
+        <v>162.01060059180421</v>
       </c>
       <c r="B163">
-        <v>216.486852655608</v>
+        <v>285.5780004755909</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
-        <v>98.697710235647804</v>
+        <v>464.47552449372017</v>
       </c>
       <c r="B164">
-        <v>403.67740384003991</v>
+        <v>70.124716619438914</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
-        <v>371.54030374239449</v>
+        <v>400.92704716631391</v>
       </c>
       <c r="B165">
-        <v>605.81859722101262</v>
+        <v>453.67694775178552</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
-        <v>193.04217946029749</v>
+        <v>255.7695641731876</v>
       </c>
       <c r="B166">
-        <v>133.6994148365217</v>
+        <v>417.91554128245377</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
-        <v>244.18826071268921</v>
+        <v>220.40772607239199</v>
       </c>
       <c r="B167">
-        <v>321.99754120404759</v>
+        <v>197.66485137883109</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
-        <v>246.28346219104671</v>
+        <v>289.83280759941169</v>
       </c>
       <c r="B168">
-        <v>318.22338165841649</v>
+        <v>432.1825182146145</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
-        <v>495.62798191510171</v>
+        <v>264.92378050017078</v>
       </c>
       <c r="B169">
-        <v>-13.57514688673678</v>
+        <v>122.234475335952</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
-        <v>569.82692827387382</v>
+        <v>449.58673842729132</v>
       </c>
       <c r="B170">
-        <v>574.15264086281331</v>
+        <v>442.04175148374509</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
-        <v>437.43501164808509</v>
+        <v>405.8075515615302</v>
       </c>
       <c r="B171">
-        <v>-31.290403873971339</v>
+        <v>479.72813255150243</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
-        <v>585.38346358080366</v>
+        <v>91.389007477194511</v>
       </c>
       <c r="B172">
-        <v>371.02563884796831</v>
+        <v>1.410244920950076</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
-        <v>204.241052562005</v>
+        <v>466.19165561635549</v>
       </c>
       <c r="B173">
-        <v>177.59179288805541</v>
+        <v>594.84685940256099</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
-        <v>163.58861332774859</v>
+        <v>41.690297809748223</v>
       </c>
       <c r="B174">
-        <v>145.32585001892929</v>
+        <v>34.167654851008507</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
-        <v>606.88574580223383</v>
+        <v>224.9600131450033</v>
       </c>
       <c r="B175">
-        <v>383.65070226949598</v>
+        <v>164.54566288254881</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
-        <v>526.4128403158968</v>
+        <v>100.2094016262034</v>
       </c>
       <c r="B176">
-        <v>368.80914864470083</v>
+        <v>25.04160368451037</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
-        <v>168.38510765081389</v>
+        <v>200.61532341656519</v>
       </c>
       <c r="B177">
-        <v>169.44779028214819</v>
+        <v>420.45989712580672</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
-        <v>516.54765997619313</v>
+        <v>96.177172068334784</v>
       </c>
       <c r="B178">
-        <v>359.79779582704958</v>
+        <v>162.51851932352631</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
-        <v>99.592825601931693</v>
+        <v>252.11198241185579</v>
       </c>
       <c r="B179">
-        <v>422.54874457939758</v>
+        <v>187.09326297876919</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
-        <v>574.27380496348189</v>
+        <v>184.11694174024501</v>
       </c>
       <c r="B180">
-        <v>530.25981415186868</v>
+        <v>128.9269372648827</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
-        <v>228.0242809888486</v>
+        <v>208.779375219586</v>
       </c>
       <c r="B181">
-        <v>297.61228101430282</v>
+        <v>564.4923409858427</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
-        <v>468.9868869619981</v>
+        <v>261.91269837054602</v>
       </c>
       <c r="B182">
-        <v>11.50759167477864</v>
+        <v>219.38907061013771</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
-        <v>113.49199876657811</v>
+        <v>168.67031276837321</v>
       </c>
       <c r="B183">
-        <v>461.72632524924518</v>
+        <v>212.00256469214659</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
-        <v>379.72261732227361</v>
+        <v>241.9074286845653</v>
       </c>
       <c r="B184">
-        <v>17.37517879097906</v>
+        <v>153.00837033682319</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
-        <v>453.76454757188958</v>
+        <v>254.0194769795786</v>
       </c>
       <c r="B185">
-        <v>20.011517580911502</v>
+        <v>150.3371551524593</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
-        <v>79.274114032177081</v>
+        <v>148.39843859699209</v>
       </c>
       <c r="B186">
-        <v>457.40444104948841</v>
+        <v>101.74957829020489</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
-        <v>475.22191241444062</v>
+        <v>366.80931172110422</v>
       </c>
       <c r="B187">
-        <v>298.29670461322581</v>
+        <v>413.71244500251618</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
-        <v>175.83094206507471</v>
+        <v>263.02239670068877</v>
       </c>
       <c r="B188">
-        <v>43.290344178062782</v>
+        <v>201.0345409057729</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
-        <v>393.33827149487252</v>
+        <v>309.6106447150014</v>
       </c>
       <c r="B189">
-        <v>216.3009973315028</v>
+        <v>420.35009723940072</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
-        <v>553.17640793262376</v>
+        <v>135.47460524657561</v>
       </c>
       <c r="B190">
-        <v>391.85730285758552</v>
+        <v>59.042286073807801</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
-        <v>198.47801707494179</v>
+        <v>419.00320688632058</v>
       </c>
       <c r="B191">
-        <v>80.389262096013681</v>
+        <v>288.77792069906889</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
-        <v>106.7535885536137</v>
+        <v>412.81569113222389</v>
       </c>
       <c r="B192">
-        <v>412.49010910163202</v>
+        <v>444.78228371520942</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
-        <v>547.11855943033322</v>
+        <v>384.86906689063568</v>
       </c>
       <c r="B193">
-        <v>567.7692007910473</v>
+        <v>466.26639926630361</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
-        <v>241.662899089907</v>
+        <v>443.39101087136407</v>
       </c>
       <c r="B194">
-        <v>100.6772021108159</v>
+        <v>307.41910873248958</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
-        <v>20.913061358562359</v>
+        <v>38.657061938339609</v>
       </c>
       <c r="B195">
-        <v>202.22094948510491</v>
+        <v>16.634173443366041</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
-        <v>219.58071328585081</v>
+        <v>574.11173829154779</v>
       </c>
       <c r="B196">
-        <v>76.092431400665518</v>
+        <v>200.25903142279779</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
-        <v>64.730910969472319</v>
+        <v>248.73910962866921</v>
       </c>
       <c r="B197">
-        <v>470.10002428483068</v>
+        <v>193.1258956381993</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
-        <v>515.67889314972911</v>
+        <v>13.49678732949312</v>
       </c>
       <c r="B198">
-        <v>372.85715387821568</v>
+        <v>11.4168788815317</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
-        <v>285.19329956864749</v>
+        <v>212.49225570349759</v>
       </c>
       <c r="B199">
-        <v>543.04328803368287</v>
+        <v>340.46961594460259</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
-        <v>333.17022281394799</v>
+        <v>314.02827375552931</v>
       </c>
       <c r="B200">
-        <v>538.3475235142804</v>
+        <v>192.5398060505342</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
-        <v>344.59810675069002</v>
+        <v>482.51875767826152</v>
       </c>
       <c r="B201">
-        <v>581.57825993044412</v>
+        <v>62.118701500775678</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
-        <v>415.07374071331333</v>
+        <v>160.33439052533689</v>
       </c>
       <c r="B202">
-        <v>24.736995484002119</v>
+        <v>21.669094576735571</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
-        <v>218.578280337633</v>
+        <v>133.2681787095996</v>
       </c>
       <c r="B203">
-        <v>32.243017641144981</v>
+        <v>27.453405270910071</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
-        <v>261.97148075009761</v>
+        <v>166.01192962307761</v>
       </c>
       <c r="B204">
-        <v>46.546771359359383</v>
+        <v>26.238136960037501</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
-        <v>560.00746603221876</v>
+        <v>513.91943526729631</v>
       </c>
       <c r="B205">
-        <v>228.80678906102301</v>
+        <v>333.19518617613352</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
-        <v>74.925330296211143</v>
+        <v>207.7267410448344</v>
       </c>
       <c r="B206">
-        <v>485.90267909874228</v>
+        <v>159.10420793783811</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
-        <v>357.85937789269741</v>
+        <v>462.7498280377539</v>
       </c>
       <c r="B207">
-        <v>578.99120310966555</v>
+        <v>298.07939665888148</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
-        <v>547.88946896746882</v>
+        <v>119.1321883484347</v>
       </c>
       <c r="B208">
-        <v>496.0980423528498</v>
+        <v>246.7368693846864</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
-        <v>401.74615398730339</v>
+        <v>489.18986630427469</v>
       </c>
       <c r="B209">
-        <v>546.08425745391776</v>
+        <v>350.48398629371587</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
-        <v>372.32029506073371</v>
+        <v>239.05143614644311</v>
       </c>
       <c r="B210">
-        <v>284.92289529944912</v>
+        <v>131.23120463129479</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
-        <v>121.82940844842901</v>
+        <v>234.13368740090729</v>
       </c>
       <c r="B211">
-        <v>171.51810679048401</v>
+        <v>357.51880972870691</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
-        <v>405.30747941001681</v>
+        <v>427.58193292680471</v>
       </c>
       <c r="B212">
-        <v>594.20323426923221</v>
+        <v>465.92989286395789</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
-        <v>148.17557102488871</v>
+        <v>412.24438489273888</v>
       </c>
       <c r="B213">
-        <v>503.20720250468167</v>
+        <v>476.73935765481622</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
-        <v>375.65295838765081</v>
+        <v>231.1591880643382</v>
       </c>
       <c r="B214">
-        <v>153.48960511848739</v>
+        <v>202.08720100791351</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
-        <v>255.6418930814294</v>
+        <v>206.48202050377839</v>
       </c>
       <c r="B215">
-        <v>287.47141454114228</v>
+        <v>350.9875009820542</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
-        <v>196.18642919152421</v>
+        <v>42.698144487975441</v>
       </c>
       <c r="B216">
-        <v>88.151556325370194</v>
+        <v>-22.24540633861686</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
-        <v>560.23536380091832</v>
+        <v>288.44535034796598</v>
       </c>
       <c r="B217">
-        <v>371.83091187063872</v>
+        <v>387.51785066759038</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
-        <v>414.92319361825167</v>
+        <v>221.75402341574491</v>
       </c>
       <c r="B218">
-        <v>27.064333352622128</v>
+        <v>178.19864085285141</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
-        <v>454.60792380961078</v>
+        <v>422.85071419553611</v>
       </c>
       <c r="B219">
-        <v>609.97430106156435</v>
+        <v>403.41313851325549</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
-        <v>408.45823452282468</v>
+        <v>222.4646167378713</v>
       </c>
       <c r="B220">
-        <v>149.16316200029939</v>
+        <v>356.58734915893211</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
-        <v>124.6955158658136</v>
+        <v>46.681783815106733</v>
       </c>
       <c r="B221">
-        <v>169.0126189569643</v>
+        <v>153.86709358952439</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
-        <v>102.72228295334671</v>
+        <v>181.8803049492999</v>
       </c>
       <c r="B222">
-        <v>445.09742856899112</v>
+        <v>156.60679104799769</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
-        <v>378.1674856442242</v>
+        <v>260.60557981144098</v>
       </c>
       <c r="B223">
-        <v>628.11365547105947</v>
+        <v>447.98679431646548</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
-        <v>261.36455450038369</v>
+        <v>236.86401190201011</v>
       </c>
       <c r="B224">
-        <v>583.25275697620145</v>
+        <v>427.57232304687489</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
-        <v>569.2960036539987</v>
+        <v>410.5365375233651</v>
       </c>
       <c r="B225">
-        <v>388.79338232233658</v>
+        <v>466.64823769355843</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
-        <v>409.28841308397011</v>
+        <v>432.20614670847851</v>
       </c>
       <c r="B226">
-        <v>136.42670237446339</v>
+        <v>74.06129969345362</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
-        <v>114.6630022994391</v>
+        <v>478.40797535991959</v>
       </c>
       <c r="B227">
-        <v>462.1402642683824</v>
+        <v>264.1531417850598</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
-        <v>51.65696905632246</v>
+        <v>414.0728581006444</v>
       </c>
       <c r="B228">
-        <v>186.94999890693671</v>
+        <v>449.49807141771902</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
-        <v>565.02771125351478</v>
+        <v>448.9073484813739</v>
       </c>
       <c r="B229">
-        <v>528.17212326124752</v>
+        <v>47.404801320965021</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
-        <v>214.34577524579899</v>
+        <v>235.22141617224781</v>
       </c>
       <c r="B230">
-        <v>119.57609542187591</v>
+        <v>591.29254247860445</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
-        <v>575.39329901265569</v>
+        <v>426.11892962628599</v>
       </c>
       <c r="B231">
-        <v>233.37063704723931</v>
+        <v>407.4552456939407</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
-        <v>139.5604697121253</v>
+        <v>199.63975735365719</v>
       </c>
       <c r="B232">
-        <v>565.85247083134573</v>
+        <v>146.21414455430309</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
-        <v>363.93315447971418</v>
+        <v>214.9652468167404</v>
       </c>
       <c r="B233">
-        <v>325.21447071779642</v>
+        <v>129.18981186826321</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
-        <v>113.4511393015802</v>
+        <v>244.25728330001709</v>
       </c>
       <c r="B234">
-        <v>135.58283008795809</v>
+        <v>48.617887185776809</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
-        <v>320.41932462025858</v>
+        <v>197.65383795236389</v>
       </c>
       <c r="B235">
-        <v>209.28095485926659</v>
+        <v>149.55330018474271</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
-        <v>536.44781443585566</v>
+        <v>205.5457159095476</v>
       </c>
       <c r="B236">
-        <v>509.72629947445762</v>
+        <v>44.636743105859431</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
-        <v>405.45588536955268</v>
+        <v>210.83382739913461</v>
       </c>
       <c r="B237">
-        <v>258.48445531065681</v>
+        <v>140.8160453598916</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
-        <v>424.50938931474741</v>
+        <v>195.95731990515571</v>
       </c>
       <c r="B238">
-        <v>48.135820810153291</v>
+        <v>204.17364811742081</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
-        <v>449.39803202940169</v>
+        <v>295.07230420639462</v>
       </c>
       <c r="B239">
-        <v>44.338300730840437</v>
+        <v>429.32306587066807</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
-        <v>421.08937860947788</v>
+        <v>552.39837301998591</v>
       </c>
       <c r="B240">
-        <v>32.064304937402483</v>
+        <v>126.4419071434949</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
-        <v>399.93482672974523</v>
+        <v>625.06690078189467</v>
       </c>
       <c r="B241">
-        <v>137.43809723206121</v>
+        <v>185.98581116589051</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
-        <v>372.16348304025712</v>
+        <v>274.61860736359267</v>
       </c>
       <c r="B242">
-        <v>155.47667625160889</v>
+        <v>623.38394606982718</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
-        <v>380.10709027714591</v>
+        <v>268.79160908035459</v>
       </c>
       <c r="B243">
-        <v>595.74307681103619</v>
+        <v>220.15910701747319</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
-        <v>576.7582942211618</v>
+        <v>492.95533134785728</v>
       </c>
       <c r="B244">
-        <v>201.07587963984989</v>
+        <v>396.29360184702841</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
-        <v>163.4621259722517</v>
+        <v>63.246608126758169</v>
       </c>
       <c r="B245">
-        <v>146.9048033681859</v>
+        <v>18.67799977328055</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
-        <v>348.86923971662628</v>
+        <v>315.47217627298761</v>
       </c>
       <c r="B246">
-        <v>296.87785208324692</v>
+        <v>201.17589711834839</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
-        <v>401.36662223298782</v>
+        <v>448.53537793843748</v>
       </c>
       <c r="B247">
-        <v>-34.132131186815919</v>
+        <v>590.57164948498018</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
-        <v>151.93345753992159</v>
+        <v>199.09364521323829</v>
       </c>
       <c r="B248">
-        <v>123.4041137196787</v>
+        <v>43.360631516573847</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
-        <v>413.98995611169812</v>
+        <v>178.00425942092929</v>
       </c>
       <c r="B249">
-        <v>588.2343603571552</v>
+        <v>-0.5095114559470133</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
-        <v>212.81172380932171</v>
+        <v>222.7861428133053</v>
       </c>
       <c r="B250">
-        <v>109.8000276250967</v>
+        <v>228.5598456247385</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
-        <v>234.52766879204981</v>
+        <v>248.92367894934179</v>
       </c>
       <c r="B251">
-        <v>41.839854410835528</v>
+        <v>568.10316477605386</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
-        <v>50.480414707995749</v>
+        <v>618.74620908696477</v>
       </c>
       <c r="B252">
-        <v>437.06926818283398</v>
+        <v>112.9749203699846</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
-        <v>608.09869123533394</v>
+        <v>248.15387928702461</v>
       </c>
       <c r="B253">
-        <v>511.90826935457051</v>
+        <v>440.23649248874722</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
-        <v>263.52131040516412</v>
+        <v>180.47580728686231</v>
       </c>
       <c r="B254">
-        <v>325.360013488292</v>
+        <v>144.0267104725161</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
-        <v>568.55035165071456</v>
+        <v>121.23193884588601</v>
       </c>
       <c r="B255">
-        <v>413.78263249617419</v>
+        <v>20.416479083044511</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
-        <v>19.128997363994792</v>
+        <v>83.512491729897292</v>
       </c>
       <c r="B256">
-        <v>227.34667794501601</v>
+        <v>189.46960967230569</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
-        <v>200.43681411060879</v>
+        <v>189.8345157964194</v>
       </c>
       <c r="B257">
-        <v>196.39315947912601</v>
+        <v>148.9122087731744</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
-        <v>268.64795659295538</v>
+        <v>144.20043103160211</v>
       </c>
       <c r="B258">
-        <v>296.18075746509072</v>
+        <v>37.179433241025947</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
-        <v>241.48290891886461</v>
+        <v>589.64933840407639</v>
       </c>
       <c r="B259">
-        <v>566.40058252515939</v>
+        <v>195.04474800843269</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
-        <v>-7.115896777783445</v>
+        <v>100.387638759113</v>
       </c>
       <c r="B260">
-        <v>228.71756506931769</v>
+        <v>48.68330283122468</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
-        <v>118.3879845542108</v>
+        <v>198.21835673693579</v>
       </c>
       <c r="B261">
-        <v>529.16791019555126</v>
+        <v>139.12445342674701</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
-        <v>238.24539713256621</v>
+        <v>147.19737575438219</v>
       </c>
       <c r="B262">
-        <v>566.62872103668292</v>
+        <v>245.9168424154642</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
-        <v>405.92483690329658</v>
+        <v>199.9151981489853</v>
       </c>
       <c r="B263">
-        <v>581.7758784451097</v>
+        <v>160.28991246266591</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
-        <v>429.11141958785902</v>
+        <v>495.61801812106268</v>
       </c>
       <c r="B264">
-        <v>307.21097579540549</v>
+        <v>590.72465123010329</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
-        <v>582.13911003955275</v>
+        <v>123.2452085114974</v>
       </c>
       <c r="B265">
-        <v>192.00252300390869</v>
+        <v>229.84713092141331</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
-        <v>94.287283924606186</v>
+        <v>307.1337649660619</v>
       </c>
       <c r="B266">
-        <v>596.42960745336336</v>
+        <v>237.17090100986141</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
-        <v>207.9732899344086</v>
+        <v>423.88400325137508</v>
       </c>
       <c r="B267">
-        <v>122.3957032786558</v>
+        <v>70.000601992688871</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
-        <v>360.99793101006958</v>
+        <v>426.56033679970119</v>
       </c>
       <c r="B268">
-        <v>111.6622079854131</v>
+        <v>447.67438664184658</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
-        <v>450.87635229139357</v>
+        <v>35.605806772891519</v>
       </c>
       <c r="B269">
-        <v>303.97995112465151</v>
+        <v>37.0357701440618</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
-        <v>557.01181912088009</v>
+        <v>426.68074314683622</v>
       </c>
       <c r="B270">
-        <v>576.48140341219175</v>
+        <v>410.59162340311377</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
-        <v>103.6237897189817</v>
+        <v>402.70318317042961</v>
       </c>
       <c r="B271">
-        <v>473.87016616589358</v>
+        <v>492.08146356901989</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
-        <v>415.10387650338902</v>
+        <v>583.44042818195521</v>
       </c>
       <c r="B272">
-        <v>297.70030029248647</v>
+        <v>187.8890629521735</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
-        <v>503.44278972222702</v>
+        <v>608.81454766784498</v>
       </c>
       <c r="B273">
-        <v>387.03986378370342</v>
+        <v>147.53320841101461</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
-        <v>465.62629831192282</v>
+        <v>490.27406803183061</v>
       </c>
       <c r="B274">
-        <v>-43.896841420155042</v>
+        <v>379.87026466826609</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
-        <v>74.819920626751383</v>
+        <v>418.65022159929953</v>
       </c>
       <c r="B275">
-        <v>446.8792470077513</v>
+        <v>579.53343975533494</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
-        <v>172.72523750915701</v>
+        <v>210.6683550939654</v>
       </c>
       <c r="B276">
-        <v>183.1936485940802</v>
+        <v>249.27227790723131</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
-        <v>594.64403064724308</v>
+        <v>238.0880678124723</v>
       </c>
       <c r="B277">
-        <v>226.0917367856992</v>
+        <v>139.59513662745769</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
-        <v>301.44801667856069</v>
+        <v>139.20163804422339</v>
       </c>
       <c r="B278">
-        <v>316.21750831502902</v>
+        <v>45.03042753314238</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
-        <v>119.573620719812</v>
+        <v>309.52008628846909</v>
       </c>
       <c r="B279">
-        <v>419.22735880166431</v>
+        <v>420.58985405443212</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
-        <v>134.60143385185199</v>
+        <v>430.58824044018041</v>
       </c>
       <c r="B280">
-        <v>450.94081066766751</v>
+        <v>563.34756130498238</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
-        <v>426.39126830219521</v>
+        <v>212.42699643103421</v>
       </c>
       <c r="B281">
-        <v>324.9902940083249</v>
+        <v>347.23245932534547</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
-        <v>530.45225341077969</v>
+        <v>492.67639559593613</v>
       </c>
       <c r="B282">
-        <v>564.34249516874922</v>
+        <v>269.13849738245631</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
-        <v>203.92283585241151</v>
+        <v>200.25148510177871</v>
       </c>
       <c r="B283">
-        <v>59.3848306371235</v>
+        <v>142.5923582378025</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
-        <v>141.78603990921761</v>
+        <v>500.45549474876282</v>
       </c>
       <c r="B284">
-        <v>553.95930934803948</v>
+        <v>273.60337099291479</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
-        <v>466.2324270630379</v>
+        <v>439.73707790810352</v>
       </c>
       <c r="B285">
-        <v>13.1669475073295</v>
+        <v>602.01261528394184</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
-        <v>402.9057892166864</v>
+        <v>243.47105510984059</v>
       </c>
       <c r="B286">
-        <v>21.76817120323571</v>
+        <v>64.599824392589056</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
-        <v>573.68786801501221</v>
+        <v>402.47613587660919</v>
       </c>
       <c r="B287">
-        <v>427.86849941128708</v>
+        <v>473.34922361881797</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
-        <v>377.56177807043611</v>
+        <v>269.60289094454771</v>
       </c>
       <c r="B288">
-        <v>180.29942197526699</v>
+        <v>169.36290167033701</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
-        <v>378.63136085352789</v>
+        <v>564.768003179277</v>
       </c>
       <c r="B289">
-        <v>616.75308259369353</v>
+        <v>161.03295149143611</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
-        <v>372.42195850799749</v>
+        <v>331.27310196614502</v>
       </c>
       <c r="B290">
-        <v>136.40827665957499</v>
+        <v>416.35236404399211</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
-        <v>389.3346000178887</v>
+        <v>557.97793903649608</v>
       </c>
       <c r="B291">
-        <v>569.93565688947001</v>
+        <v>115.49913878852919</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
-        <v>449.95156575218851</v>
+        <v>403.49891054761588</v>
       </c>
       <c r="B292">
-        <v>16.15893149175961</v>
+        <v>303.62382648274382</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
-        <v>362.30977679835843</v>
+        <v>448.00181501458798</v>
       </c>
       <c r="B293">
-        <v>539.99756609219344</v>
+        <v>235.60592850767961</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
-        <v>425.17838498511719</v>
+        <v>531.30160248109451</v>
       </c>
       <c r="B294">
-        <v>45.708460209745603</v>
+        <v>298.72983429641221</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
-        <v>236.4739285343046</v>
+        <v>303.28784166961663</v>
       </c>
       <c r="B295">
-        <v>57.391562560206623</v>
+        <v>415.77649304892151</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
-        <v>559.51905058069997</v>
+        <v>230.0274603835116</v>
       </c>
       <c r="B296">
-        <v>580.72914058331469</v>
+        <v>611.29371286743253</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
-        <v>412.55597712799403</v>
+        <v>210.05129646979751</v>
       </c>
       <c r="B297">
-        <v>104.19616979007461</v>
+        <v>202.35285386164489</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
-        <v>32.538230273577533</v>
+        <v>129.5601691286125</v>
       </c>
       <c r="B298">
-        <v>178.51245345868591</v>
+        <v>24.240376474047451</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
-        <v>549.42320705225961</v>
+        <v>48.777626952769999</v>
       </c>
       <c r="B299">
-        <v>514.36937347880257</v>
+        <v>185.18260611613911</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
-        <v>104.96262921634469</v>
+        <v>100.6660956058624</v>
       </c>
       <c r="B300">
-        <v>143.36777622728891</v>
+        <v>39.600760275904477</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
-        <v>215.91101255093841</v>
+        <v>186.69243679810879</v>
       </c>
       <c r="B301">
-        <v>55.107340071229608</v>
+        <v>165.18706103540029</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A302">
-        <v>371.26994828574459</v>
+        <v>469.54597172339129</v>
       </c>
       <c r="B302">
-        <v>398.33598068635001</v>
+        <v>553.16218309720193</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A303">
-        <v>351.60163843652941</v>
+        <v>129.4148014521503</v>
       </c>
       <c r="B303">
-        <v>570.37103620251378</v>
+        <v>236.7565243897956</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A304">
-        <v>393.21699477844908</v>
+        <v>161.29647809498729</v>
       </c>
       <c r="B304">
-        <v>566.23325215574584</v>
+        <v>31.404238666471631</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A305">
-        <v>274.31075640490531</v>
+        <v>476.60614996043472</v>
       </c>
       <c r="B305">
-        <v>329.37860574078047</v>
+        <v>354.97347556392202</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A306">
-        <v>525.56025211389431</v>
+        <v>467.34404594624033</v>
       </c>
       <c r="B306">
-        <v>373.40207584704871</v>
+        <v>45.485213656047179</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A307">
-        <v>257.02204538727989</v>
+        <v>290.71816463861109</v>
       </c>
       <c r="B307">
-        <v>577.01196069373691</v>
+        <v>166.46639060372999</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A308">
-        <v>80.116138419017091</v>
+        <v>250.29371303417551</v>
       </c>
       <c r="B308">
-        <v>438.99932406983982</v>
+        <v>187.01205924170549</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A309">
-        <v>164.45425424705289</v>
+        <v>114.4488762238566</v>
       </c>
       <c r="B309">
-        <v>562.0385052358057</v>
+        <v>247.24582205650091</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A310">
-        <v>160.47837343296749</v>
+        <v>294.84369973831582</v>
       </c>
       <c r="B310">
-        <v>558.7582903112891</v>
+        <v>419.28651431062332</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A311">
-        <v>120.45884660533309</v>
+        <v>170.07241179080219</v>
       </c>
       <c r="B311">
-        <v>106.81392243030589</v>
+        <v>7.347269668304822</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A312">
-        <v>383.84107007217261</v>
+        <v>179.38109447070511</v>
       </c>
       <c r="B312">
-        <v>272.37889617669902</v>
+        <v>47.904471210260148</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A313">
-        <v>207.25788563445829</v>
+        <v>117.3930708691817</v>
       </c>
       <c r="B313">
-        <v>146.22266910633249</v>
+        <v>36.604676861667379</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A314">
-        <v>192.38545740448589</v>
+        <v>564.3316820622598</v>
       </c>
       <c r="B314">
-        <v>133.22809403245381</v>
+        <v>180.21292023730521</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A315">
-        <v>396.72135120310298</v>
+        <v>561.00309120203735</v>
       </c>
       <c r="B315">
-        <v>557.01687470348065</v>
+        <v>365.38783921940131</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A316">
-        <v>587.8784926807956</v>
+        <v>394.07571551474479</v>
       </c>
       <c r="B316">
-        <v>514.8974665722742</v>
+        <v>481.85027015228121</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A317">
-        <v>594.13263445008727</v>
+        <v>573.4907096555919</v>
       </c>
       <c r="B317">
-        <v>406.8368693932444</v>
+        <v>215.5304635326419</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A318">
-        <v>98.257166773970752</v>
+        <v>542.48419186351418</v>
       </c>
       <c r="B318">
-        <v>421.60737080689842</v>
+        <v>316.74822264402508</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A319">
-        <v>362.77219746396241</v>
+        <v>270.90764765888918</v>
       </c>
       <c r="B319">
-        <v>343.35050674234498</v>
+        <v>400.41941980654542</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A320">
-        <v>294.8658017528582</v>
+        <v>260.42424717783598</v>
       </c>
       <c r="B320">
-        <v>530.11288391008179</v>
+        <v>128.05108129840571</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A321">
-        <v>457.07642256169311</v>
+        <v>240.87364291929211</v>
       </c>
       <c r="B321">
-        <v>37.260934001774643</v>
+        <v>111.1771269788261</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A322">
-        <v>239.40961455656051</v>
+        <v>323.12105373150638</v>
       </c>
       <c r="B322">
-        <v>278.56558248111031</v>
+        <v>208.60589032384141</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A323">
-        <v>227.30027999543259</v>
+        <v>197.2861608149644</v>
       </c>
       <c r="B323">
-        <v>192.9667305421103</v>
+        <v>389.60841728621318</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A324">
-        <v>358.13510918291792</v>
+        <v>471.51812768715189</v>
       </c>
       <c r="B324">
-        <v>583.55360020974774</v>
+        <v>540.02495333577679</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A325">
-        <v>52.447503667765183</v>
+        <v>439.04816834136312</v>
       </c>
       <c r="B325">
-        <v>475.10536062968367</v>
+        <v>573.66399314116018</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A326">
-        <v>-20.824195691935511</v>
+        <v>281.16160972768159</v>
       </c>
       <c r="B326">
-        <v>253.19168568657199</v>
+        <v>255.01866067999481</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A327">
-        <v>426.78459296511988</v>
+        <v>59.341655676096487</v>
       </c>
       <c r="B327">
-        <v>17.775274657945079</v>
+        <v>205.52716341448121</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A328">
-        <v>410.3194070847365</v>
+        <v>555.9585526180955</v>
       </c>
       <c r="B328">
-        <v>552.63559823511775</v>
+        <v>182.79906041330821</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A329">
-        <v>444.25597440960502</v>
+        <v>152.013860245149</v>
       </c>
       <c r="B329">
-        <v>34.707537845731338</v>
+        <v>12.61386702892101</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A330">
-        <v>357.95081178226138</v>
+        <v>440.28778187312201</v>
       </c>
       <c r="B330">
-        <v>587.64904405093512</v>
+        <v>244.52115440854919</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A331">
-        <v>621.3959779272235</v>
+        <v>70.884427204400595</v>
       </c>
       <c r="B331">
-        <v>384.07077913952259</v>
+        <v>159.51768743508751</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A332">
-        <v>419.17252267102668</v>
+        <v>70.855299148392632</v>
       </c>
       <c r="B332">
-        <v>114.7512704441836</v>
+        <v>183.31994306284361</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A333">
-        <v>191.1671463469516</v>
+        <v>532.23819964187021</v>
       </c>
       <c r="B333">
-        <v>89.884378735025123</v>
+        <v>324.68943347731602</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A334">
-        <v>141.16468280219291</v>
+        <v>307.14173537892538</v>
       </c>
       <c r="B334">
-        <v>557.53263946678294</v>
+        <v>259.74713471255382</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A335">
-        <v>413.03392350689302</v>
+        <v>331.31026254458982</v>
       </c>
       <c r="B335">
-        <v>33.417172228966308</v>
+        <v>181.30562469143021</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A336">
-        <v>272.57661621854442</v>
+        <v>427.36033662501268</v>
       </c>
       <c r="B336">
-        <v>321.06352139618252</v>
+        <v>417.796530760981</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A337">
-        <v>281.51782224811222</v>
+        <v>121.3726193320486</v>
       </c>
       <c r="B337">
-        <v>541.21002220805406</v>
+        <v>26.98643189123171</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A338">
-        <v>335.14453333137038</v>
+        <v>317.66357829986532</v>
       </c>
       <c r="B338">
-        <v>575.67549971401411</v>
+        <v>233.75757412698781</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A339">
-        <v>457.84895939938252</v>
+        <v>549.52737046856794</v>
       </c>
       <c r="B339">
-        <v>317.92948529822451</v>
+        <v>345.051637151558</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A340">
-        <v>87.843338526244281</v>
+        <v>215.546211832523</v>
       </c>
       <c r="B340">
-        <v>409.40453723030862</v>
+        <v>217.9933797057385</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A341">
-        <v>176.35333592731209</v>
+        <v>295.3079995753526</v>
       </c>
       <c r="B341">
-        <v>530.41621506598153</v>
+        <v>163.9271629474236</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A342">
-        <v>421.23752491999483</v>
+        <v>395.27831009955457</v>
       </c>
       <c r="B342">
-        <v>37.789897878390498</v>
+        <v>448.48481803052238</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A343">
-        <v>208.99419866023891</v>
+        <v>231.19540335259549</v>
       </c>
       <c r="B343">
-        <v>73.642333040122665</v>
+        <v>413.26641333074099</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A344">
-        <v>449.11852265485828</v>
+        <v>243.62522746782099</v>
       </c>
       <c r="B344">
-        <v>24.996259962748251</v>
+        <v>559.98555201513136</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A345">
-        <v>-10.96009096159627</v>
+        <v>254.2808447117356</v>
       </c>
       <c r="B345">
-        <v>170.376226767887</v>
+        <v>236.64542133908219</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A346">
-        <v>343.47504208408378</v>
+        <v>231.18602030560791</v>
       </c>
       <c r="B346">
-        <v>110.9537443626198</v>
+        <v>561.044901052196</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A347">
-        <v>600.36206279983708</v>
+        <v>183.71149004887741</v>
       </c>
       <c r="B347">
-        <v>219.43270621812431</v>
+        <v>184.14183006121351</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A348">
-        <v>491.53786260410931</v>
+        <v>207.84600395041031</v>
       </c>
       <c r="B348">
-        <v>545.04116834497279</v>
+        <v>201.84512552834261</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A349">
-        <v>390.84016331886932</v>
+        <v>551.04157594162689</v>
       </c>
       <c r="B349">
-        <v>162.5945798583048</v>
+        <v>134.48855660386141</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A350">
-        <v>595.31920421623806</v>
+        <v>88.282538591090187</v>
       </c>
       <c r="B350">
-        <v>550.13935772732816</v>
+        <v>156.00043317895739</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A351">
-        <v>582.27934910501028</v>
+        <v>52.318351869006143</v>
       </c>
       <c r="B351">
-        <v>185.96399541751649</v>
+        <v>25.5421212414231</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A352">
-        <v>-14.857856988784791</v>
+        <v>409.24412421934483</v>
       </c>
       <c r="B352">
-        <v>181.13309629530991</v>
+        <v>612.60306296025101</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A353">
-        <v>188.70234367623499</v>
+        <v>170.0566466683955</v>
       </c>
       <c r="B353">
-        <v>161.29085475680469</v>
+        <v>158.03594995715511</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A354">
-        <v>46.229298303269033</v>
+        <v>418.95054514380291</v>
       </c>
       <c r="B354">
-        <v>537.15429016351061</v>
+        <v>269.24378856824711</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A355">
-        <v>-4.5178358303695534</v>
+        <v>487.76363160213862</v>
       </c>
       <c r="B355">
-        <v>213.25089508981091</v>
+        <v>564.79250461615857</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A356">
-        <v>187.52270610634801</v>
+        <v>207.34673669457129</v>
       </c>
       <c r="B356">
-        <v>166.78922553645771</v>
+        <v>147.60831727758861</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A357">
-        <v>584.89800182263627</v>
+        <v>500.59906909519418</v>
       </c>
       <c r="B357">
-        <v>372.52444441447352</v>
+        <v>645.56091125421653</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A358">
-        <v>128.49939382760579</v>
+        <v>262.55097880857829</v>
       </c>
       <c r="B358">
-        <v>158.22589883917399</v>
+        <v>206.61773223537051</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A359">
-        <v>370.14123192120041</v>
+        <v>328.27070684034072</v>
       </c>
       <c r="B359">
-        <v>160.2562644937382</v>
+        <v>445.59837912087983</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A360">
-        <v>382.70211619956638</v>
+        <v>123.3506127539363</v>
       </c>
       <c r="B360">
-        <v>585.78377916253169</v>
+        <v>11.39635918530284</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A361">
-        <v>401.61003107741192</v>
+        <v>212.0523375632967</v>
       </c>
       <c r="B361">
-        <v>-12.74265382468289</v>
+        <v>170.45873569015069</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A362">
-        <v>541.07113496086163</v>
+        <v>151.3687409780768</v>
       </c>
       <c r="B362">
-        <v>220.06097200614951</v>
+        <v>289.26582938362759</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A363">
-        <v>180.08100911021401</v>
+        <v>271.93807751241383</v>
       </c>
       <c r="B363">
-        <v>111.0635903190004</v>
+        <v>447.7041111517334</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A364">
-        <v>590.3881580788086</v>
+        <v>11.86193067894836</v>
       </c>
       <c r="B364">
-        <v>425.96684785183038</v>
+        <v>11.345449574855831</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A365">
-        <v>350.23064785191212</v>
+        <v>154.2281081070135</v>
       </c>
       <c r="B365">
-        <v>133.18705316748671</v>
+        <v>235.63854255081489</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A366">
-        <v>529.28745899146963</v>
+        <v>538.28309275191157</v>
       </c>
       <c r="B366">
-        <v>518.30327693456582</v>
+        <v>359.97947411433211</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A367">
-        <v>167.87825076031251</v>
+        <v>432.67294465614032</v>
       </c>
       <c r="B367">
-        <v>218.6047983159396</v>
+        <v>597.64854492087056</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A368">
-        <v>277.42077706356099</v>
+        <v>44.398180562215387</v>
       </c>
       <c r="B368">
-        <v>559.99757486914757</v>
+        <v>25.635183033396132</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A369">
-        <v>485.76571144832729</v>
+        <v>258.35748438657401</v>
       </c>
       <c r="B369">
-        <v>24.757758825254228</v>
+        <v>199.7363617844542</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A370">
-        <v>146.41548564450551</v>
+        <v>79.323063988585105</v>
       </c>
       <c r="B370">
-        <v>560.00944631903519</v>
+        <v>28.277810256214298</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A371">
-        <v>82.191886994893864</v>
+        <v>234.9551630557842</v>
       </c>
       <c r="B371">
-        <v>455.70539853276762</v>
+        <v>558.69847562822247</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A372">
-        <v>141.8899276315525</v>
+        <v>87.49073252561152</v>
       </c>
       <c r="B372">
-        <v>540.08186035261997</v>
+        <v>165.4290073810842</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A373">
-        <v>564.01248592475145</v>
+        <v>130.8266980641875</v>
       </c>
       <c r="B373">
-        <v>204.83663899549251</v>
+        <v>241.2463964481538</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A374">
-        <v>77.383499245161005</v>
+        <v>500.62547921224518</v>
       </c>
       <c r="B374">
-        <v>442.21659800591738</v>
+        <v>325.98755989331158</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A375">
-        <v>591.25606009552564</v>
+        <v>111.1566381687649</v>
       </c>
       <c r="B375">
-        <v>539.57751549452769</v>
+        <v>-8.1176029111147407</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A376">
-        <v>573.206434277516</v>
+        <v>320.1688172653304</v>
       </c>
       <c r="B376">
-        <v>547.70086492804569</v>
+        <v>413.02432866342713</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A377">
-        <v>480.93937003818422</v>
+        <v>206.5512573564088</v>
       </c>
       <c r="B377">
-        <v>379.62806974480372</v>
+        <v>403.84296306248842</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A378">
-        <v>384.73489761109158</v>
+        <v>498.95667046142188</v>
       </c>
       <c r="B378">
-        <v>233.3831708487651</v>
+        <v>601.97823645106985</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A379">
-        <v>394.03083133445108</v>
+        <v>180.43330841337209</v>
       </c>
       <c r="B379">
-        <v>303.50411568318549</v>
+        <v>231.99151361728471</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A380">
-        <v>580.88185373250587</v>
+        <v>162.65930480036579</v>
       </c>
       <c r="B380">
-        <v>385.1848968036507</v>
+        <v>273.64648004712842</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A381">
-        <v>527.40197152231701</v>
+        <v>278.05571211804642</v>
       </c>
       <c r="B381">
-        <v>343.11842950972567</v>
+        <v>173.85593536833611</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A382">
-        <v>295.14109141271399</v>
+        <v>527.09247292192606</v>
       </c>
       <c r="B382">
-        <v>358.46543467675002</v>
+        <v>321.34781334343319</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A383">
-        <v>201.7091524817827</v>
+        <v>473.45960288581978</v>
       </c>
       <c r="B383">
-        <v>46.116030153408417</v>
+        <v>421.0302473047916</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A384">
-        <v>379.3343667949585</v>
+        <v>403.24600261971023</v>
       </c>
       <c r="B384">
-        <v>558.65290192273915</v>
+        <v>424.03939354488142</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A385">
-        <v>482.83023912050481</v>
+        <v>302.30828426528768</v>
       </c>
       <c r="B385">
-        <v>549.36517736434075</v>
+        <v>199.16392378017889</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A386">
-        <v>175.37313548911189</v>
+        <v>255.96809608431161</v>
       </c>
       <c r="B386">
-        <v>120.5659433773901</v>
+        <v>160.54964073283551</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A387">
-        <v>520.95023741724515</v>
+        <v>455.44014026404022</v>
       </c>
       <c r="B387">
-        <v>527.69608540141235</v>
+        <v>12.933216864228401</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A388">
-        <v>296.61943522238272</v>
+        <v>408.69252114883898</v>
       </c>
       <c r="B388">
-        <v>311.88051168455428</v>
+        <v>437.02074524782051</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A389">
-        <v>157.92810550888331</v>
+        <v>246.90759435240739</v>
       </c>
       <c r="B389">
-        <v>150.54909655968501</v>
+        <v>387.56446431654803</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A390">
-        <v>580.48124669191145</v>
+        <v>92.613583577381547</v>
       </c>
       <c r="B390">
-        <v>223.94973129559091</v>
+        <v>207.2307778439598</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A391">
-        <v>545.59338120924883</v>
+        <v>198.11111437052719</v>
       </c>
       <c r="B391">
-        <v>229.55110549646429</v>
+        <v>423.26700285306572</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A392">
-        <v>207.9235629392569</v>
+        <v>230.8442657173004</v>
       </c>
       <c r="B392">
-        <v>150.9357226029837</v>
+        <v>180.39095132917481</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A393">
-        <v>161.2140237388119</v>
+        <v>27.2620321804071</v>
       </c>
       <c r="B393">
-        <v>113.8190053701194</v>
+        <v>21.47135562986999</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A394">
-        <v>200.5262777568708</v>
+        <v>189.56911253086511</v>
       </c>
       <c r="B394">
-        <v>17.86688217203772</v>
+        <v>75.176512309720749</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A395">
-        <v>-1.8126859284714349</v>
+        <v>238.1425212754402</v>
       </c>
       <c r="B395">
-        <v>216.7887452801456</v>
+        <v>204.90398203604269</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A396">
-        <v>87.416317313815597</v>
+        <v>440.03344131147048</v>
       </c>
       <c r="B396">
-        <v>465.63656350872043</v>
+        <v>488.10732699230101</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A397">
-        <v>463.37131762025518</v>
+        <v>486.26493948113108</v>
       </c>
       <c r="B397">
-        <v>316.41673658960269</v>
+        <v>560.51397442328766</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A398">
-        <v>379.69964260476331</v>
+        <v>213.7402275687389</v>
       </c>
       <c r="B398">
-        <v>356.62448505508308</v>
+        <v>399.26857357064472</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A399">
-        <v>294.32141399753539</v>
+        <v>414.1934715971226</v>
       </c>
       <c r="B399">
-        <v>599.45909793185126</v>
+        <v>294.20240071619179</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A400">
-        <v>420.42751213765848</v>
+        <v>234.34394672114661</v>
       </c>
       <c r="B400">
-        <v>258.08705474619609</v>
+        <v>433.09485704130412</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A401">
-        <v>443.15080016015531</v>
+        <v>212.45060545877499</v>
       </c>
       <c r="B401">
-        <v>78.505684062329863</v>
+        <v>61.607396241088182</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A402">
-        <v>140.3489691149596</v>
+        <v>417.39140033475388</v>
       </c>
       <c r="B402">
-        <v>164.46570701100879</v>
+        <v>452.48809362423799</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A403">
-        <v>182.41527680085099</v>
+        <v>431.13499154565471</v>
       </c>
       <c r="B403">
-        <v>171.99678065846081</v>
+        <v>467.98329188195157</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A404">
-        <v>545.69622233320047</v>
+        <v>245.44565090345569</v>
       </c>
       <c r="B404">
-        <v>335.44939662955869</v>
+        <v>146.94275909771861</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A405">
-        <v>394.24395685133481</v>
+        <v>225.14638908985319</v>
       </c>
       <c r="B405">
-        <v>156.6681728354425</v>
+        <v>226.69076830743981</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A406">
-        <v>378.57082744081953</v>
+        <v>306.50683038120599</v>
       </c>
       <c r="B406">
-        <v>134.80469118866691</v>
+        <v>216.1060168010321</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A407">
-        <v>454.67640915833209</v>
+        <v>283.55195351196988</v>
       </c>
       <c r="B407">
-        <v>252.1892641551552</v>
+        <v>202.5613743618683</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A408">
-        <v>166.01445469494649</v>
+        <v>253.2861284120159</v>
       </c>
       <c r="B408">
-        <v>596.79510116779386</v>
+        <v>604.21603595001932</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A409">
-        <v>538.27309428286901</v>
+        <v>204.09916126030819</v>
       </c>
       <c r="B409">
-        <v>547.64591337433353</v>
+        <v>151.92750880522391</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A410">
-        <v>152.4189805596902</v>
+        <v>440.58405001548158</v>
       </c>
       <c r="B410">
-        <v>557.89688669917723</v>
+        <v>45.364922004080768</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A411">
-        <v>361.08432398355512</v>
+        <v>238.36438545808619</v>
       </c>
       <c r="B411">
-        <v>334.75957344387677</v>
+        <v>201.2737263777444</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A412">
-        <v>366.25985125827361</v>
+        <v>249.47162929973251</v>
       </c>
       <c r="B412">
-        <v>392.90650409581622</v>
+        <v>379.96708226526528</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A413">
-        <v>491.88970232764387</v>
+        <v>402.48198903014861</v>
       </c>
       <c r="B413">
-        <v>313.23646318485459</v>
+        <v>469.87067731465561</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A414">
-        <v>392.10609185561788</v>
+        <v>91.415834140154487</v>
       </c>
       <c r="B414">
-        <v>275.70105386624323</v>
+        <v>2.907137297381567</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A415">
-        <v>461.4740656968562</v>
+        <v>522.99248354545921</v>
       </c>
       <c r="B415">
-        <v>279.44052422629329</v>
+        <v>411.86057269544528</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A416">
-        <v>528.67849598117027</v>
+        <v>444.15735089708369</v>
       </c>
       <c r="B416">
-        <v>351.14147938012911</v>
+        <v>610.50535288361766</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A417">
-        <v>569.50154521350498</v>
+        <v>300.37770928697307</v>
       </c>
       <c r="B417">
-        <v>231.67931984086181</v>
+        <v>158.75254776114599</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A418">
-        <v>388.57333350532872</v>
+        <v>108.9142430762838</v>
       </c>
       <c r="B418">
-        <v>291.70757037812399</v>
+        <v>2.3424404539561099</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A419">
-        <v>512.65742024976998</v>
+        <v>219.58498061125209</v>
       </c>
       <c r="B419">
-        <v>584.89826347229666</v>
+        <v>573.86456334306297</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A420">
-        <v>507.2890249439244</v>
+        <v>442.55479056696032</v>
       </c>
       <c r="B420">
-        <v>402.17158059635472</v>
+        <v>440.01708108245651</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A421">
-        <v>366.75278718504649</v>
+        <v>558.67363434629783</v>
       </c>
       <c r="B421">
-        <v>172.9596076738724</v>
+        <v>333.72641481045162</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A422">
-        <v>105.3526300910423</v>
+        <v>376.64739870023641</v>
       </c>
       <c r="B422">
-        <v>465.24228788036532</v>
+        <v>424.57412211228183</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A423">
-        <v>149.37234878211859</v>
+        <v>232.16131133875129</v>
       </c>
       <c r="B423">
-        <v>455.34020810006342</v>
+        <v>321.19876589072771</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A424">
-        <v>394.19594130228609</v>
+        <v>200.77889659375339</v>
       </c>
       <c r="B424">
-        <v>221.71169086379649</v>
+        <v>558.62488733310443</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A425">
-        <v>451.89840483611857</v>
+        <v>149.59020755898231</v>
       </c>
       <c r="B425">
-        <v>32.365821144437767</v>
+        <v>11.92748325008117</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A426">
-        <v>390.2368916162427</v>
+        <v>229.84742938432319</v>
       </c>
       <c r="B426">
-        <v>587.37198346675291</v>
+        <v>145.706738526001</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A427">
-        <v>48.941080466926572</v>
+        <v>79.366465115169845</v>
       </c>
       <c r="B427">
-        <v>451.16458913589969</v>
+        <v>19.43824245711858</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A428">
-        <v>371.33771599963768</v>
+        <v>561.85270420477411</v>
       </c>
       <c r="B428">
-        <v>376.93750053966153</v>
+        <v>314.21235319420788</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A429">
-        <v>459.61302097961101</v>
+        <v>45.913149120634337</v>
       </c>
       <c r="B429">
-        <v>268.85840550213487</v>
+        <v>139.99459423201549</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A430">
-        <v>225.6141416733675</v>
+        <v>225.80343032678181</v>
       </c>
       <c r="B430">
-        <v>151.98649423017969</v>
+        <v>26.64810030495369</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A431">
-        <v>290.1784453035113</v>
+        <v>449.47464620382902</v>
       </c>
       <c r="B431">
-        <v>530.26229765350263</v>
+        <v>305.90879570800729</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A432">
-        <v>15.756753296529959</v>
+        <v>238.97446363294961</v>
       </c>
       <c r="B432">
-        <v>177.4267959144762</v>
+        <v>129.574408790598</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A433">
-        <v>386.05132298863771</v>
+        <v>28.488972227298181</v>
       </c>
       <c r="B433">
-        <v>191.03342076756221</v>
+        <v>32.0090676322042</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A434">
-        <v>103.1783583966325</v>
+        <v>397.72631163097151</v>
       </c>
       <c r="B434">
-        <v>429.7214946246873</v>
+        <v>465.99333567609108</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A435">
-        <v>282.78361288000531</v>
+        <v>199.03018267605191</v>
       </c>
       <c r="B435">
-        <v>542.88969320592969</v>
+        <v>346.27757392958222</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A436">
-        <v>236.1038548611273</v>
+        <v>239.70589321693751</v>
       </c>
       <c r="B436">
-        <v>310.53064971139349</v>
+        <v>172.51778560094399</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A437">
-        <v>532.87204525070831</v>
+        <v>203.14144345249471</v>
       </c>
       <c r="B437">
-        <v>377.48570278955032</v>
+        <v>553.20530662537954</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A438">
-        <v>156.1626581391356</v>
+        <v>237.91434172632461</v>
       </c>
       <c r="B438">
-        <v>537.93312098004037</v>
+        <v>432.68353483752372</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A439">
-        <v>575.42908711162613</v>
+        <v>253.3399253426438</v>
       </c>
       <c r="B439">
-        <v>406.59881446108238</v>
+        <v>162.77698844697139</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A440">
-        <v>378.1362225661789</v>
+        <v>558.68280263135819</v>
       </c>
       <c r="B440">
-        <v>138.88887052913881</v>
+        <v>188.4897508030607</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A441">
-        <v>174.06845394902459</v>
+        <v>113.4675335535416</v>
       </c>
       <c r="B441">
-        <v>176.63194188939539</v>
+        <v>250.3493245946492</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A442">
-        <v>579.81069209863733</v>
+        <v>498.21009574037078</v>
       </c>
       <c r="B442">
-        <v>566.81408562893921</v>
+        <v>377.0663237719026</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A443">
-        <v>108.53338292590129</v>
+        <v>480.15597192574882</v>
       </c>
       <c r="B443">
-        <v>474.88403447310702</v>
+        <v>594.75365052418283</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A444">
-        <v>392.31906576161498</v>
+        <v>51.666247992575506</v>
       </c>
       <c r="B444">
-        <v>228.59150524112681</v>
+        <v>185.6464566251357</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A445">
-        <v>158.06661417013549</v>
+        <v>197.16710378605481</v>
       </c>
       <c r="B445">
-        <v>81.630210446019774</v>
+        <v>164.9032406933166</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A446">
-        <v>392.69051467799221</v>
+        <v>146.88598000366281</v>
       </c>
       <c r="B446">
-        <v>567.7548189367933</v>
+        <v>29.97784255937005</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A447">
-        <v>99.853184796849291</v>
+        <v>108.9679992768471</v>
       </c>
       <c r="B447">
-        <v>405.05119968239461</v>
+        <v>32.130227147414537</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A448">
-        <v>83.723360327154026</v>
+        <v>258.12946509902628</v>
       </c>
       <c r="B448">
-        <v>457.29247706468811</v>
+        <v>163.32975990382721</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A449">
-        <v>377.80644343333762</v>
+        <v>281.76582536955749</v>
       </c>
       <c r="B449">
-        <v>350.28129615145099</v>
+        <v>176.4343013348203</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A450">
-        <v>339.495944546727</v>
+        <v>447.81309061501071</v>
       </c>
       <c r="B450">
-        <v>602.14466047229268</v>
+        <v>482.19334610915263</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A451">
-        <v>412.63911558215688</v>
+        <v>120.4927439783725</v>
       </c>
       <c r="B451">
-        <v>26.545800923161131</v>
+        <v>4.122028721174674</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A452">
-        <v>378.95093770669507</v>
+        <v>145.67695309663529</v>
       </c>
       <c r="B452">
-        <v>615.55074227033947</v>
+        <v>74.814844039182105</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A453">
-        <v>348.25939797102973</v>
+        <v>242.28211512659459</v>
       </c>
       <c r="B453">
-        <v>152.80865690663529</v>
+        <v>402.4082955112857</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A454">
-        <v>494.6763970312565</v>
+        <v>580.69343680168743</v>
       </c>
       <c r="B454">
-        <v>582.52572706736726</v>
+        <v>322.03533810206778</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A455">
-        <v>577.0728802767635</v>
+        <v>554.35743065669408</v>
       </c>
       <c r="B455">
-        <v>534.55047408095209</v>
+        <v>308.72711947377809</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A456">
-        <v>-22.074108428894</v>
+        <v>143.07398645334661</v>
       </c>
       <c r="B456">
-        <v>176.15712573512221</v>
+        <v>53.990294250665933</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A457">
-        <v>582.17190524822558</v>
+        <v>216.58263724139459</v>
       </c>
       <c r="B457">
-        <v>193.6628215738528</v>
+        <v>128.30673240173431</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A458">
-        <v>128.1251830085836</v>
+        <v>218.68756023632471</v>
       </c>
       <c r="B458">
-        <v>157.7712339968117</v>
+        <v>387.61003816261598</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A459">
-        <v>171.04447405052781</v>
+        <v>187.59944027237461</v>
       </c>
       <c r="B459">
-        <v>529.48424829860119</v>
+        <v>458.07099037994283</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A460">
-        <v>532.5064675005176</v>
+        <v>287.91133854237381</v>
       </c>
       <c r="B460">
-        <v>568.22560428455165</v>
+        <v>207.07276059951329</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A461">
-        <v>377.74307852161462</v>
+        <v>235.0993262603391</v>
       </c>
       <c r="B461">
-        <v>139.18854269745319</v>
+        <v>93.258952384603305</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A462">
-        <v>24.658626699671679</v>
+        <v>148.61977725159019</v>
       </c>
       <c r="B462">
-        <v>214.98284915476461</v>
+        <v>16.90772295050148</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A463">
-        <v>87.041012741420218</v>
+        <v>42.995649605094442</v>
       </c>
       <c r="B463">
-        <v>488.7071957047815</v>
+        <v>0.81583267866535891</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A464">
-        <v>558.06370273100833</v>
+        <v>254.89093912773771</v>
       </c>
       <c r="B464">
-        <v>607.70700175731258</v>
+        <v>229.68222881139999</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A465">
-        <v>374.12496825639278</v>
+        <v>80.833768729290739</v>
       </c>
       <c r="B465">
-        <v>201.61686204577231</v>
+        <v>2.8914672791037752</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A466">
-        <v>592.5765619123041</v>
+        <v>211.35876608982281</v>
       </c>
       <c r="B466">
-        <v>424.51754395493379</v>
+        <v>319.38044286015048</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A467">
-        <v>439.01685106880382</v>
+        <v>282.30839002250173</v>
       </c>
       <c r="B467">
-        <v>50.484369349157333</v>
+        <v>206.65022448896781</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A468">
-        <v>219.53223248680621</v>
+        <v>191.91505540960571</v>
       </c>
       <c r="B468">
-        <v>83.437852998566257</v>
+        <v>354.5835903933787</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A469">
-        <v>504.59679358781727</v>
+        <v>183.0675781870261</v>
       </c>
       <c r="B469">
-        <v>538.15738390107924</v>
+        <v>178.2828451815414</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A470">
-        <v>404.91686500954722</v>
+        <v>215.7963328213842</v>
       </c>
       <c r="B470">
-        <v>273.01698134565811</v>
+        <v>156.27626010567809</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A471">
-        <v>584.38627208665582</v>
+        <v>103.9580895599382</v>
       </c>
       <c r="B471">
-        <v>431.76831492289341</v>
+        <v>246.28232825716759</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A472">
-        <v>215.5631872760587</v>
+        <v>292.58795953456752</v>
       </c>
       <c r="B472">
-        <v>351.06111827735629</v>
+        <v>468.35585954108672</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A473">
-        <v>465.5297481824195</v>
+        <v>240.8847464631871</v>
       </c>
       <c r="B473">
-        <v>334.6776385891132</v>
+        <v>329.59005740990011</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A474">
-        <v>241.13164489463821</v>
+        <v>52.719005954494349</v>
       </c>
       <c r="B474">
-        <v>296.46945062232282</v>
+        <v>186.88650467256909</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A475">
-        <v>627.90501729676373</v>
+        <v>26.281528197233381</v>
       </c>
       <c r="B475">
-        <v>420.76323649187589</v>
+        <v>9.1332000261880921</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A476">
-        <v>390.98509651606912</v>
+        <v>118.1601086933897</v>
       </c>
       <c r="B476">
-        <v>283.80226674415752</v>
+        <v>4.0509079094871261</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A477">
-        <v>323.89724228852401</v>
+        <v>204.13862034328079</v>
       </c>
       <c r="B477">
-        <v>521.44596657070076</v>
+        <v>441.62961818005618</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A478">
-        <v>580.94210860235489</v>
+        <v>192.04327669688931</v>
       </c>
       <c r="B478">
-        <v>595.38445718369962</v>
+        <v>460.70035334114522</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A479">
-        <v>389.6962162908161</v>
+        <v>178.02337244181501</v>
       </c>
       <c r="B479">
-        <v>596.68831795589847</v>
+        <v>17.215081801775451</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A480">
-        <v>203.56624034757451</v>
+        <v>387.55889055348467</v>
       </c>
       <c r="B480">
-        <v>63.691475580412103</v>
+        <v>501.94748991673617</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A481">
-        <v>609.50780026738437</v>
+        <v>217.8002394890552</v>
       </c>
       <c r="B481">
-        <v>576.83029391363493</v>
+        <v>353.03339067801193</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A482">
-        <v>290.27231573148089</v>
+        <v>217.14664924962921</v>
       </c>
       <c r="B482">
-        <v>546.22744383811266</v>
+        <v>146.1347888471133</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A483">
-        <v>137.5481077666617</v>
+        <v>431.93805286980728</v>
       </c>
       <c r="B483">
-        <v>553.59546494816175</v>
+        <v>439.04005941742429</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A484">
-        <v>387.8418972790368</v>
+        <v>285.40231382168719</v>
       </c>
       <c r="B484">
-        <v>335.16931584276938</v>
+        <v>138.10263853395199</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A485">
-        <v>574.3804378643963</v>
+        <v>398.31319743121958</v>
       </c>
       <c r="B485">
-        <v>544.98461657269729</v>
+        <v>449.22374189190771</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A486">
-        <v>299.05376558670878</v>
+        <v>520.28441229717407</v>
       </c>
       <c r="B486">
-        <v>331.65363417794771</v>
+        <v>328.09777139052301</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A487">
-        <v>489.08917373428193</v>
+        <v>499.41500522242109</v>
       </c>
       <c r="B487">
-        <v>368.9246675380943</v>
+        <v>391.08625374802261</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A488">
-        <v>66.229460474396319</v>
+        <v>439.20742931585448</v>
       </c>
       <c r="B488">
-        <v>468.02670985794998</v>
+        <v>-6.8543080352976347</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A489">
-        <v>447.44418188616532</v>
+        <v>208.02262488067569</v>
       </c>
       <c r="B489">
-        <v>316.48617505963699</v>
+        <v>42.877209274988182</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A490">
-        <v>394.56371717159828</v>
+        <v>57.239925007746038</v>
       </c>
       <c r="B490">
-        <v>392.5468719464576</v>
+        <v>189.8540956565509</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A491">
-        <v>478.40081844463282</v>
+        <v>204.93803530034259</v>
       </c>
       <c r="B491">
-        <v>8.8005087231257217</v>
+        <v>349.73358182341832</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A492">
-        <v>142.75758747671679</v>
+        <v>77.896590607512863</v>
       </c>
       <c r="B492">
-        <v>589.62670554165425</v>
+        <v>213.2319485605905</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A493">
-        <v>522.46505095573036</v>
+        <v>164.8725074754023</v>
       </c>
       <c r="B493">
-        <v>360.4616457522103</v>
+        <v>65.717243850121832</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A494">
-        <v>87.565311936605482</v>
+        <v>427.29278265267891</v>
       </c>
       <c r="B494">
-        <v>473.68515488034558</v>
+        <v>418.38421865354962</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A495">
-        <v>193.6577755960169</v>
+        <v>447.744234943278</v>
       </c>
       <c r="B495">
-        <v>166.80338733797399</v>
+        <v>429.71910234418812</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A496">
-        <v>438.91290024458812</v>
+        <v>228.16323688705489</v>
       </c>
       <c r="B496">
-        <v>129.5192841321898</v>
+        <v>374.19691781848348</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A497">
-        <v>205.94425376889171</v>
+        <v>52.013885880712508</v>
       </c>
       <c r="B497">
-        <v>197.69331213876819</v>
+        <v>36.562828338414498</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A498">
-        <v>142.46964564104351</v>
+        <v>485.19213390811439</v>
       </c>
       <c r="B498">
-        <v>156.24160676671491</v>
+        <v>53.146818761996229</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A499">
-        <v>393.79831464605081</v>
+        <v>147.09378547099101</v>
       </c>
       <c r="B499">
-        <v>315.12225190265838</v>
+        <v>42.517658200713733</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A500">
-        <v>452.64398648054811</v>
+        <v>59.033228507015252</v>
       </c>
       <c r="B500">
-        <v>-7.1957434216000102</v>
+        <v>215.7999334879959</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A501">
-        <v>215.13205534878981</v>
+        <v>267.17445196916259</v>
       </c>
       <c r="B501">
-        <v>99.794254588622408</v>
+        <v>132.6055127876775</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A502">
-        <v>400.38776013784269</v>
+        <v>428.21419289535771</v>
       </c>
       <c r="B502">
-        <v>229.03248610023121</v>
+        <v>31.094740231079559</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A503">
-        <v>224.81542919928799</v>
+        <v>247.5181058145991</v>
       </c>
       <c r="B503">
-        <v>88.482972480735043</v>
+        <v>187.91173233228659</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A504">
-        <v>164.49745786633491</v>
+        <v>242.53901580894239</v>
       </c>
       <c r="B504">
-        <v>540.78778177124764</v>
+        <v>413.55585318864638</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A505">
-        <v>235.24238612106441</v>
+        <v>149.88098733929229</v>
       </c>
       <c r="B505">
-        <v>546.1901733039457</v>
+        <v>65.440766133382866</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A506">
-        <v>94.896750800570146</v>
+        <v>133.5301146104718</v>
       </c>
       <c r="B506">
-        <v>435.44391484070633</v>
+        <v>265.71205919119808</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A507">
-        <v>477.62854103399309</v>
+        <v>277.67771019904819</v>
       </c>
       <c r="B507">
-        <v>267.58879295358997</v>
+        <v>219.3253191258201</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A508">
-        <v>64.170496454898029</v>
+        <v>213.4050020137862</v>
       </c>
       <c r="B508">
-        <v>488.72889403332738</v>
+        <v>544.49479208061916</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A509">
-        <v>250.2284400656296</v>
+        <v>86.750179817234255</v>
       </c>
       <c r="B509">
-        <v>101.2213465012033</v>
+        <v>185.38584763663849</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A510">
-        <v>252.3572138217784</v>
+        <v>333.73197760420328</v>
       </c>
       <c r="B510">
-        <v>272.82549676884503</v>
+        <v>426.41785049075509</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A511">
-        <v>387.9778024065767</v>
+        <v>163.6372147257741</v>
       </c>
       <c r="B511">
-        <v>168.15383416437379</v>
+        <v>82.554028660035129</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A512">
-        <v>265.10318778844169</v>
+        <v>61.31271680756349</v>
       </c>
       <c r="B512">
-        <v>559.24802474304352</v>
+        <v>-1.037881202974098</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A513">
-        <v>424.34461316728522</v>
+        <v>204.9005012218154</v>
       </c>
       <c r="B513">
-        <v>36.155652231089022</v>
+        <v>28.54722061071266</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A514">
-        <v>472.11806705509372</v>
+        <v>274.40524435445309</v>
       </c>
       <c r="B514">
-        <v>269.41691897052817</v>
+        <v>168.19961791942089</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A515">
-        <v>509.07217547150259</v>
+        <v>460.00601187597152</v>
       </c>
       <c r="B515">
-        <v>522.19898125544523</v>
+        <v>597.57097528397276</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A516">
-        <v>203.86049976122609</v>
+        <v>217.7059248164835</v>
       </c>
       <c r="B516">
-        <v>71.050844877566632</v>
+        <v>422.16512172390139</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A517">
-        <v>174.7676301317145</v>
+        <v>335.73013760147819</v>
       </c>
       <c r="B517">
-        <v>70.046530228408685</v>
+        <v>436.62327613995888</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A518">
-        <v>352.77732383937138</v>
+        <v>496.64355784937902</v>
       </c>
       <c r="B518">
-        <v>558.12090238643532</v>
+        <v>368.49770900201878</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A519">
-        <v>512.08413394204149</v>
+        <v>428.57554495627159</v>
       </c>
       <c r="B519">
-        <v>570.29117186499809</v>
+        <v>430.43507552094468</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A520">
-        <v>369.04060989020883</v>
+        <v>565.64519300471716</v>
       </c>
       <c r="B520">
-        <v>352.82460071535161</v>
+        <v>333.22154463307169</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A521">
-        <v>397.9189760203538</v>
+        <v>233.14335654545391</v>
       </c>
       <c r="B521">
-        <v>613.94498608886261</v>
+        <v>393.3453040346634</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A522">
-        <v>392.66402237470112</v>
+        <v>198.35007915552751</v>
       </c>
       <c r="B522">
-        <v>179.35889253459641</v>
+        <v>40.288551781704513</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A523">
-        <v>21.909853083466292</v>
+        <v>283.48956610833011</v>
       </c>
       <c r="B523">
-        <v>190.17192468041691</v>
+        <v>382.84363190760621</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A524">
-        <v>260.752230703137</v>
+        <v>422.92448964048452</v>
       </c>
       <c r="B524">
-        <v>505.3203070032115</v>
+        <v>27.36214085559304</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A525">
-        <v>373.90828341682021</v>
+        <v>456.33772717564608</v>
       </c>
       <c r="B525">
-        <v>336.26066868563618</v>
+        <v>588.29305267729433</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A526">
-        <v>390.06241038815011</v>
+        <v>171.14109840525549</v>
       </c>
       <c r="B526">
-        <v>614.15343928800519</v>
+        <v>45.310773459702553</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A527">
-        <v>280.24594077189869</v>
+        <v>246.31937503549821</v>
       </c>
       <c r="B527">
-        <v>564.77597011510397</v>
+        <v>538.32076477543876</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A528">
-        <v>368.68337887207019</v>
+        <v>58.675327120175503</v>
       </c>
       <c r="B528">
-        <v>323.64154454532229</v>
+        <v>178.10254696302451</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A529">
-        <v>389.61099140104699</v>
+        <v>214.16166316857789</v>
       </c>
       <c r="B529">
-        <v>328.52704001316403</v>
+        <v>173.2954292540951</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A530">
-        <v>203.118469519825</v>
+        <v>115.95834081311369</v>
       </c>
       <c r="B530">
-        <v>94.163161955082899</v>
+        <v>278.62075223321858</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A531">
-        <v>461.9355609394085</v>
+        <v>213.87384894851141</v>
       </c>
       <c r="B531">
-        <v>300.43617337434398</v>
+        <v>392.16483721382048</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A532">
-        <v>147.4758307924194</v>
+        <v>243.97892517256199</v>
       </c>
       <c r="B532">
-        <v>598.67704772977856</v>
+        <v>214.0009148721781</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A533">
-        <v>552.03606575403114</v>
+        <v>239.3784293806489</v>
       </c>
       <c r="B533">
-        <v>219.53593027095059</v>
+        <v>152.3487936584558</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A534">
-        <v>246.00552559176151</v>
+        <v>197.05378501547139</v>
       </c>
       <c r="B534">
-        <v>361.73002415675768</v>
+        <v>172.28224105596669</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A535">
-        <v>451.48004697617029</v>
+        <v>387.36307946961512</v>
       </c>
       <c r="B535">
-        <v>27.417474077909489</v>
+        <v>411.6330323898722</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A536">
-        <v>206.16900204131949</v>
+        <v>319.11636662502161</v>
       </c>
       <c r="B536">
-        <v>94.540623736952369</v>
+        <v>407.40980269325672</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A537">
-        <v>291.13191299379378</v>
+        <v>418.27055333417002</v>
       </c>
       <c r="B537">
-        <v>523.31443294418943</v>
+        <v>431.17544498893881</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A538">
-        <v>166.14952455611251</v>
+        <v>457.81276485321592</v>
       </c>
       <c r="B538">
-        <v>583.59599145785114</v>
+        <v>275.03412791968742</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A539">
-        <v>22.184436564661929</v>
+        <v>299.58721719066477</v>
       </c>
       <c r="B539">
-        <v>182.76111130620839</v>
+        <v>219.16694854601661</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A540">
-        <v>128.08876164828121</v>
+        <v>446.83276981292107</v>
       </c>
       <c r="B540">
-        <v>162.69339377547021</v>
+        <v>366.059590454312</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A541">
-        <v>460.0849912155519</v>
+        <v>445.81748039034471</v>
       </c>
       <c r="B541">
-        <v>264.84453559357661</v>
+        <v>432.20791471212141</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A542">
-        <v>446.85996402756399</v>
+        <v>448.59530605139418</v>
       </c>
       <c r="B542">
-        <v>19.425093169844629</v>
+        <v>49.566751461321523</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A543">
-        <v>532.61957165244178</v>
+        <v>560.8757760946753</v>
       </c>
       <c r="B543">
-        <v>563.85120303234748</v>
+        <v>347.15560588538381</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A544">
-        <v>383.6604906896776</v>
+        <v>193.98616954085961</v>
       </c>
       <c r="B544">
-        <v>580.11065348302668</v>
+        <v>154.38053493646521</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A545">
-        <v>443.66340574787142</v>
+        <v>380.91229623167482</v>
       </c>
       <c r="B545">
-        <v>290.52742192206898</v>
+        <v>427.5925887115045</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A546">
-        <v>437.66219464924473</v>
+        <v>138.07172271590309</v>
       </c>
       <c r="B546">
-        <v>16.02884900751399</v>
+        <v>20.942081596203909</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A547">
-        <v>592.68118091931399</v>
+        <v>177.69109676477891</v>
       </c>
       <c r="B547">
-        <v>220.1175055567505</v>
+        <v>150.08948768857459</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A548">
-        <v>109.690347195613</v>
+        <v>470.32448911892351</v>
       </c>
       <c r="B548">
-        <v>427.6392326860402</v>
+        <v>585.5873208296872</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A549">
-        <v>67.936372517040041</v>
+        <v>274.6129232545976</v>
       </c>
       <c r="B549">
-        <v>439.11426752584021</v>
+        <v>175.46389129792681</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A550">
-        <v>423.09763259705898</v>
+        <v>560.8944410810268</v>
       </c>
       <c r="B550">
-        <v>600.05625517851422</v>
+        <v>159.23925151294739</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A551">
-        <v>359.39835613168009</v>
+        <v>214.24496934044629</v>
       </c>
       <c r="B551">
-        <v>598.75165084218327</v>
+        <v>145.09116177776801</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A552">
-        <v>556.51431039040574</v>
+        <v>208.55108796629111</v>
       </c>
       <c r="B552">
-        <v>535.83929067744793</v>
+        <v>169.73877201994671</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A553">
-        <v>323.94987458738871</v>
+        <v>489.9018718247375</v>
       </c>
       <c r="B553">
-        <v>533.78126777214629</v>
+        <v>394.32828546347213</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A554">
-        <v>481.22644826997231</v>
+        <v>201.46268186204509</v>
       </c>
       <c r="B554">
-        <v>-32.815775714920591</v>
+        <v>12.083847757339219</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A555">
-        <v>562.63679987913451</v>
+        <v>89.706147820792097</v>
       </c>
       <c r="B555">
-        <v>210.61237718026479</v>
+        <v>249.09372562830899</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A556">
-        <v>214.13705124154961</v>
+        <v>221.75003364416381</v>
       </c>
       <c r="B556">
-        <v>75.664621275726304</v>
+        <v>154.2199214661488</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A557">
-        <v>423.43621726820021</v>
+        <v>197.61569451836181</v>
       </c>
       <c r="B557">
-        <v>271.98432027318802</v>
+        <v>422.93581897764159</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A558">
-        <v>479.60771270343122</v>
+        <v>226.0792497675267</v>
       </c>
       <c r="B558">
-        <v>295.19177934877911</v>
+        <v>166.59372338437879</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A559">
-        <v>530.0488903585765</v>
+        <v>465.2800204172911</v>
       </c>
       <c r="B559">
-        <v>393.92112341464951</v>
+        <v>411.83700542939289</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A560">
-        <v>204.4384924935446</v>
+        <v>192.87255009495681</v>
       </c>
       <c r="B560">
-        <v>179.05154284355541</v>
+        <v>141.24458258568981</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A561">
-        <v>222.02087236509971</v>
+        <v>221.06569313567061</v>
       </c>
       <c r="B561">
-        <v>42.254018168544782</v>
+        <v>352.983382222285</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A562">
-        <v>628.21449156995754</v>
+        <v>198.02305059729511</v>
       </c>
       <c r="B562">
-        <v>549.70792976226596</v>
+        <v>556.44908218658884</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A563">
-        <v>350.20919713743359</v>
+        <v>179.21368269865141</v>
       </c>
       <c r="B563">
-        <v>206.6767358306667</v>
+        <v>242.09252583861931</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A564">
-        <v>320.61111097264762</v>
+        <v>554.7631298861869</v>
       </c>
       <c r="B564">
-        <v>334.51786639814048</v>
+        <v>325.95060522560237</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A565">
-        <v>569.89967772119223</v>
+        <v>115.937342148615</v>
       </c>
       <c r="B565">
-        <v>430.25660883418152</v>
+        <v>33.553972851886407</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A566">
-        <v>479.20747768014968</v>
+        <v>411.53305508703397</v>
       </c>
       <c r="B566">
-        <v>266.14719283102869</v>
+        <v>483.47682625844777</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A567">
-        <v>382.26229237272912</v>
+        <v>242.6230136333354</v>
       </c>
       <c r="B567">
-        <v>375.5804899944697</v>
+        <v>136.99187491523489</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A568">
-        <v>436.02210123701622</v>
+        <v>581.50317385984101</v>
       </c>
       <c r="B568">
-        <v>283.17698412203958</v>
+        <v>184.49511997426481</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A569">
-        <v>348.18530724469048</v>
+        <v>269.44525109327037</v>
       </c>
       <c r="B569">
-        <v>348.87116317573759</v>
+        <v>199.16553001843371</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A570">
-        <v>450.76370865840158</v>
+        <v>87.574517798752169</v>
       </c>
       <c r="B570">
-        <v>25.212155320831979</v>
+        <v>281.34923940172172</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A571">
-        <v>55.373738371698408</v>
+        <v>386.74294416416058</v>
       </c>
       <c r="B571">
-        <v>496.05555309198542</v>
+        <v>36.290889487877394</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A572">
-        <v>-46.74008384524862</v>
+        <v>489.58566297987812</v>
       </c>
       <c r="B572">
-        <v>148.25377724641129</v>
+        <v>386.11827504604429</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A573">
-        <v>172.07895417790061</v>
+        <v>183.61030424888901</v>
       </c>
       <c r="B573">
-        <v>15.23387483999492</v>
+        <v>34.616376700797773</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A574">
-        <v>442.20280548396317</v>
+        <v>410.12654459413221</v>
       </c>
       <c r="B574">
-        <v>285.04880499110271</v>
+        <v>62.598822877037158</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A575">
-        <v>447.93836637525237</v>
+        <v>557.54258636253121</v>
       </c>
       <c r="B575">
-        <v>27.185846568701539</v>
+        <v>347.28221236146112</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A576">
-        <v>410.48332189022869</v>
+        <v>88.979320915129009</v>
       </c>
       <c r="B576">
-        <v>277.65132432696078</v>
+        <v>-8.5684259937553726</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A577">
-        <v>278.21837008393572</v>
+        <v>370.21591220181182</v>
       </c>
       <c r="B577">
-        <v>547.74080144267498</v>
+        <v>479.74800839387768</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A578">
-        <v>310.16043025743409</v>
+        <v>150.00966583626951</v>
       </c>
       <c r="B578">
-        <v>183.02063983830141</v>
+        <v>92.23182142590781</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A579">
-        <v>513.77232464718497</v>
+        <v>481.72734145691629</v>
       </c>
       <c r="B579">
-        <v>379.81284068043391</v>
+        <v>414.02852374008779</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A580">
-        <v>15.15207161585958</v>
+        <v>573.73670695227406</v>
       </c>
       <c r="B580">
-        <v>208.2050861933011</v>
+        <v>139.20601644169</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A581">
-        <v>380.56444306004772</v>
+        <v>217.00372174798551</v>
       </c>
       <c r="B581">
-        <v>241.92329763932801</v>
+        <v>123.4926050561197</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A582">
-        <v>395.96211231254091</v>
+        <v>275.36399979214781</v>
       </c>
       <c r="B582">
-        <v>111.687834630941</v>
+        <v>610.79646274368145</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A583">
-        <v>386.24981204483493</v>
+        <v>336.35959798335608</v>
       </c>
       <c r="B583">
-        <v>554.02005947262933</v>
+        <v>432.14812979187889</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A584">
-        <v>-6.7760677455848954</v>
+        <v>185.822150053743</v>
       </c>
       <c r="B584">
-        <v>201.24502461459321</v>
+        <v>111.621889842031</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A585">
-        <v>231.77803562112501</v>
+        <v>233.2695596077138</v>
       </c>
       <c r="B585">
-        <v>143.7758718307459</v>
+        <v>118.3271693425726</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A586">
-        <v>209.47933720906079</v>
+        <v>90.73165336575336</v>
       </c>
       <c r="B586">
-        <v>110.9502306369415</v>
+        <v>-2.223215331508928</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A587">
-        <v>195.79244832086289</v>
+        <v>209.51844737584409</v>
       </c>
       <c r="B587">
-        <v>176.9283770513529</v>
+        <v>210.3458754481795</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A588">
-        <v>353.91766827947413</v>
+        <v>114.82291749940499</v>
       </c>
       <c r="B588">
-        <v>188.82927503669271</v>
+        <v>44.27108562701072</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A589">
-        <v>581.80356319802854</v>
+        <v>168.61719163166561</v>
       </c>
       <c r="B589">
-        <v>217.13808928261429</v>
+        <v>223.6738121841056</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A590">
-        <v>358.72371941254153</v>
+        <v>219.36556502901959</v>
       </c>
       <c r="B590">
-        <v>140.20347886640931</v>
+        <v>169.13556196100899</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A591">
-        <v>339.46003486756717</v>
+        <v>561.8309937473424</v>
       </c>
       <c r="B591">
-        <v>362.34823127507622</v>
+        <v>225.65586034398331</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A592">
-        <v>365.75772406443463</v>
+        <v>174.8799737430318</v>
       </c>
       <c r="B592">
-        <v>168.05442921727851</v>
+        <v>11.7910728519592</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A593">
-        <v>406.58950332386979</v>
+        <v>483.81449591301651</v>
       </c>
       <c r="B593">
-        <v>172.71017540515041</v>
+        <v>34.448092707459473</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A594">
-        <v>251.0905936266067</v>
+        <v>300.69568124348439</v>
       </c>
       <c r="B594">
-        <v>319.84150329725298</v>
+        <v>170.76767764056231</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A595">
-        <v>104.0316543772319</v>
+        <v>192.12422537884331</v>
       </c>
       <c r="B595">
-        <v>525.10146879179626</v>
+        <v>388.30944877019817</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A596">
-        <v>364.07223616886807</v>
+        <v>358.96172944139988</v>
       </c>
       <c r="B596">
-        <v>608.45869596474824</v>
+        <v>446.07119474912372</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A597">
-        <v>402.41177265681858</v>
+        <v>256.32965708377628</v>
       </c>
       <c r="B597">
-        <v>258.11228035413961</v>
+        <v>184.71890838505601</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A598">
-        <v>147.99836583312009</v>
+        <v>283.2190489940233</v>
       </c>
       <c r="B598">
-        <v>152.41248764386739</v>
+        <v>176.92548731530431</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A599">
-        <v>400.82222805766497</v>
+        <v>390.85353527799123</v>
       </c>
       <c r="B599">
-        <v>41.908284166184089</v>
+        <v>439.83278883857929</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A600">
-        <v>260.98394430101831</v>
+        <v>45.403528382965249</v>
       </c>
       <c r="B600">
-        <v>325.70903332982363</v>
+        <v>194.36715839579151</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A601">
-        <v>392.15061022248688</v>
+        <v>422.67044561026432</v>
       </c>
       <c r="B601">
-        <v>610.10239125541739</v>
+        <v>398.01217963231181</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>